--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lei.du\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace-tony\duleitony-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
     <sheet name="java-variables" sheetId="2" r:id="rId2"/>
+    <sheet name="classloader" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>存储内容</t>
   </si>
@@ -39,155 +40,212 @@
     <t>No</t>
   </si>
   <si>
+    <t>HotSopt虚拟机中直接就把本地方法栈和Java栈合二为一</t>
+  </si>
+  <si>
+    <t>程序当前执行的指令的地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xss：每个线程的stack大小（栈）</t>
+  </si>
+  <si>
+    <t>线程私有</t>
+  </si>
+  <si>
+    <t>生存周期</t>
+  </si>
+  <si>
+    <t>随线程产生和消亡</t>
+  </si>
+  <si>
+    <t>共享原则</t>
+  </si>
+  <si>
+    <t>编译时确定需要内存大小</t>
+  </si>
+  <si>
+    <t>根据参数确定内存大小</t>
+  </si>
+  <si>
+    <t>内存溢出</t>
+  </si>
+  <si>
+    <t>单线程：StackOverflowError
+多线程：OutOfMemoryError</t>
+  </si>
+  <si>
+    <t>OutOfMemoryError</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>堆(Heap)</t>
+  </si>
+  <si>
+    <t>方法区(Method Area)</t>
+  </si>
+  <si>
+    <t>本地方法栈(Native Method Stack)</t>
+  </si>
+  <si>
+    <t>Java栈 (Java Stack)</t>
+  </si>
+  <si>
+    <t>程序计数器 (Program Counter Register)</t>
+  </si>
+  <si>
+    <t>随Java进程产生和消亡</t>
+  </si>
+  <si>
+    <t>XX:MetaspaceSize：class metadata的初始空间配额，以bytes为单位，达到该值
+XX:MaxMetaspaceSize：可以为class metadata分配的最大空间。默认是没有限制的。
+注意：java8去掉了-XX:PermSize和-XX:MaxPermSize，新增了-XX:MetaspaceSize和-XX:MaxMetaspaceSize</t>
+  </si>
+  <si>
+    <t>Xmx：JAVA HEAP的最大值、默认为物理内存的1/4
+Xms：JAVA HEAP的初始值，server端最好Xms与Xmx一样
+Xmn：JAVA HEAP young区的大小</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>对象本身(包括实例变量Instance Variables)
+数组</t>
+  </si>
+  <si>
+    <t>类的信息（包括类的名称、方法信息、字段信息）
+静态变量(Static Variables)
+常量(Constant)
+编译器编译后的代码</t>
+  </si>
+  <si>
+    <t>作用范围</t>
+  </si>
+  <si>
+    <t>生命周期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被static修饰的属性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在类变量定义之后。
+</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>局部变量（本地变量）
+Local Variables</t>
+  </si>
+  <si>
+    <t>成员变量(实例变量，属性)
+Instance Variables</t>
+  </si>
+  <si>
+    <t>类变量（静态属性）
+Class/Static Variables</t>
+  </si>
+  <si>
+    <t>出生：类加载时，类变量就分配内存空间。 
+死亡：JVM退出</t>
+  </si>
+  <si>
+    <t>出生： new对象的时候，开辟内存空间。 
+死亡：  堆内存地址没有引用，变成垃圾，被垃圾回收器回收后。</t>
+  </si>
+  <si>
+    <t>成员变量就是类中的属性。当new对象的时候，每个对象都有一份属性。一个对象中的属性就是成员变量。</t>
+  </si>
+  <si>
+    <t>在类内部，任何地方都可以访问成员变量。</t>
+  </si>
+  <si>
+    <t>出生：运行到创建变量的语句时。 
+死亡：超过了其作用范围。</t>
+  </si>
+  <si>
+    <t>形参：在方法体中任何位置都可以访问。
+方法中定义变量：从定义处开始，直到所在代码块结束</t>
+  </si>
+  <si>
+    <t xml:space="preserve">方法的形式参数以及在方法中定义的变量。
+</t>
+  </si>
+  <si>
+    <t>全局变量
+Global Variables</t>
+  </si>
+  <si>
+    <t>创建位置</t>
+  </si>
+  <si>
+    <t>栈内存</t>
+  </si>
+  <si>
+    <t>堆内存</t>
+  </si>
+  <si>
+    <t>是否需要初始化</t>
+  </si>
+  <si>
+    <t>局部变量在使用前必须进行初始化，系统默认不会对局部变量进行初始化数据操作，如果局部                                       变量在使用前没有进行初始化则会在编译器报错；如果局部变量进行了声明没有进行初始化,但是也一直没有被使用的话编译也是不会报错的；（局部变量使用前必须初始化话）</t>
+  </si>
+  <si>
+    <t>凡是全局变量都是可以不要初始化的，静态变量也是一样，系统会自动根据其数据类型进行赋默认值，但是建议变量在声明时都进行初始化</t>
+  </si>
+  <si>
+    <t>全局变量都是不需要被强制初始化的，系统都会默认根据其数据类型进行默认赋值；但是建议 在声明时都进行初始化操作</t>
+  </si>
+  <si>
+    <t>方法区</t>
+  </si>
+  <si>
     <t>栈帧，每个栈帧对应一个被调用的方法，在栈帧中包括:
-局部变量表(Local Variables)
+方法内的局部变量表(Local Variables)
 操作数栈(Operand Stack)
 指向当前方法所属的类的运行时常量池的引用(Reference to runtime constant pool)
 方法返回地址(ReturnAddress)
 一些额外的附加信息</t>
   </si>
   <si>
-    <t>HotSopt虚拟机中直接就把本地方法栈和Java栈合二为一</t>
-  </si>
-  <si>
-    <t>程序当前执行的指令的地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Xss：每个线程的stack大小（栈）</t>
-  </si>
-  <si>
-    <t>线程私有</t>
-  </si>
-  <si>
-    <t>生存周期</t>
-  </si>
-  <si>
-    <t>随线程产生和消亡</t>
-  </si>
-  <si>
-    <t>共享原则</t>
-  </si>
-  <si>
-    <t>编译时确定需要内存大小</t>
-  </si>
-  <si>
-    <t>根据参数确定内存大小</t>
-  </si>
-  <si>
-    <t>内存溢出</t>
-  </si>
-  <si>
-    <t>单线程：StackOverflowError
-多线程：OutOfMemoryError</t>
-  </si>
-  <si>
-    <t>OutOfMemoryError</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>堆(Heap)</t>
-  </si>
-  <si>
-    <t>方法区(Method Area)</t>
-  </si>
-  <si>
-    <t>本地方法栈(Native Method Stack)</t>
-  </si>
-  <si>
-    <t>Java栈 (Java Stack)</t>
-  </si>
-  <si>
-    <t>程序计数器 (Program Counter Register)</t>
-  </si>
-  <si>
-    <t>随Java进程产生和消亡</t>
-  </si>
-  <si>
-    <t>XX:MetaspaceSize：class metadata的初始空间配额，以bytes为单位，达到该值
-XX:MaxMetaspaceSize：可以为class metadata分配的最大空间。默认是没有限制的。
-注意：java8去掉了-XX:PermSize和-XX:MaxPermSize，新增了-XX:MetaspaceSize和-XX:MaxMetaspaceSize</t>
-  </si>
-  <si>
-    <t>Xmx：JAVA HEAP的最大值、默认为物理内存的1/4
-Xms：JAVA HEAP的初始值，server端最好Xms与Xmx一样
-Xmn：JAVA HEAP young区的大小</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>对象本身(包括实例变量Instance Variables)
-数组</t>
-  </si>
-  <si>
-    <t>类的信息（包括类的名称、方法信息、字段信息）
-静态变量(Static Variables)
-常量(Constant)
-编译器编译后的代码</t>
-  </si>
-  <si>
-    <t>作用范围</t>
-  </si>
-  <si>
-    <t>生命周期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">被static修饰的属性。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在类变量定义之后。
-</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>局部变量（本地变量）
-Local Variables</t>
-  </si>
-  <si>
-    <t>成员变量(实例变量，属性)
-Instance Variables</t>
-  </si>
-  <si>
-    <t>类变量（静态属性）
-Class/Static Variables</t>
-  </si>
-  <si>
-    <t>出生：类加载时，类变量就分配内存空间。 
-死亡：JVM退出</t>
-  </si>
-  <si>
-    <t>出生： new对象的时候，开辟内存空间。 
-死亡：  堆内存地址没有引用，变成垃圾，被垃圾回收器回收后。</t>
-  </si>
-  <si>
-    <t>成员变量就是类中的属性。当new对象的时候，每个对象都有一份属性。一个对象中的属性就是成员变量。</t>
-  </si>
-  <si>
-    <t>在类内部，任何地方都可以访问成员变量。</t>
-  </si>
-  <si>
-    <t>出生：运行到创建变量的语句时。 
-死亡：超过了其作用范围。</t>
-  </si>
-  <si>
-    <t>形参：在方法体中任何位置都可以访问。
-方法中定义变量：从定义处开始，直到所在代码块结束</t>
-  </si>
-  <si>
-    <t xml:space="preserve">方法的形式参数以及在方法中定义的变量。
-</t>
+    <t>bootstrap classloader</t>
+  </si>
+  <si>
+    <t>extension classloader</t>
+  </si>
+  <si>
+    <t>system/application classloader</t>
+  </si>
+  <si>
+    <t>Java的核心类</t>
+  </si>
+  <si>
+    <t>sun.boot.class.path
+-Xbootclasspath
+D选项指定sun.boot.class.path系统属性值</t>
+  </si>
+  <si>
+    <t>JRE的扩展目录中JAR的类包</t>
+  </si>
+  <si>
+    <t>为引入除Java核心类以外的新功能提供了一个标准机制。</t>
+  </si>
+  <si>
+    <t>加载来自-classpath或者java.class.path系统属性以及CLASSPATH操作系统属性所指定的JAR包和类路径</t>
+  </si>
+  <si>
+    <t>可以通过静态方法ClassLoader.getSystemClassLoader()找到该类加载器。如果没有特别指定，则用户自定义的任何类加载器都将该类加载器作为它的父加载器。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +253,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -239,11 +315,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -261,6 +389,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +723,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,134 +745,134 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -738,100 +883,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="A14:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="65.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B25:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="2:5" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
     <sheet name="java-variables" sheetId="2" r:id="rId2"/>
     <sheet name="classloader" sheetId="3" r:id="rId3"/>
+    <sheet name="jp-card-companies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
   <si>
     <t>存储内容</t>
   </si>
@@ -240,12 +241,265 @@
   <si>
     <t>可以通过静态方法ClassLoader.getSystemClassLoader()找到该类加载器。如果没有特别指定，则用户自定义的任何类加载器都将该类加载器作为它的父加载器。</t>
   </si>
+  <si>
+    <t>カード会社名</t>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+  </si>
+  <si>
+    <t>カード名</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>JCB</t>
+  </si>
+  <si>
+    <t>Diners Club</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>UnionPay</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Issuer</t>
+  </si>
+  <si>
+    <t>Acquirer</t>
+  </si>
+  <si>
+    <t>アメリカン・エキスプレス・ジャパン株式会社</t>
+  </si>
+  <si>
+    <t>銀行系</t>
+  </si>
+  <si>
+    <t>アメリカン・エキスプレス（アメックス）</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>株式会社ジェーシービー</t>
+  </si>
+  <si>
+    <t>JCB法人カード</t>
+  </si>
+  <si>
+    <t>三井住友カード株式会社</t>
+  </si>
+  <si>
+    <t>三井住友VISAカード</t>
+  </si>
+  <si>
+    <t>三菱UFJニコス株式会社</t>
+  </si>
+  <si>
+    <t>三菱UFJニコス</t>
+  </si>
+  <si>
+    <t>りそなカード株式会社</t>
+  </si>
+  <si>
+    <t>りそなカード</t>
+  </si>
+  <si>
+    <t>三井住友トラストクラブ株式会社
+（シティカードジャパン株式会社）</t>
+  </si>
+  <si>
+    <t>シティカード</t>
+  </si>
+  <si>
+    <t>静銀セゾンカード株式会社</t>
+  </si>
+  <si>
+    <t>ALL-Sカード</t>
+  </si>
+  <si>
+    <t>ワイエムセゾン株式会社</t>
+  </si>
+  <si>
+    <t>YMセゾンカード</t>
+  </si>
+  <si>
+    <t>ソニー銀行株式会社</t>
+  </si>
+  <si>
+    <t>ソニーカード</t>
+  </si>
+  <si>
+    <t>スルガ銀行株式会社</t>
+  </si>
+  <si>
+    <t>SURUGA Visaデビットカード</t>
+  </si>
+  <si>
+    <t>株式会社ゆうちょ銀行</t>
+  </si>
+  <si>
+    <t>JP BANK カード</t>
+  </si>
+  <si>
+    <t>香港上海銀行</t>
+  </si>
+  <si>
+    <t>HSBC香港クレジットカード</t>
+  </si>
+  <si>
+    <t>株式会社セディナ</t>
+  </si>
+  <si>
+    <t>信販系</t>
+  </si>
+  <si>
+    <t>セディナカード</t>
+  </si>
+  <si>
+    <t>株式会社オリエントコーポレーション</t>
+  </si>
+  <si>
+    <t>オリエントコーポレーション</t>
+  </si>
+  <si>
+    <t>株式会社ジャックス</t>
+  </si>
+  <si>
+    <t>ジャックスカード</t>
+  </si>
+  <si>
+    <t>ライフカード株式会社</t>
+  </si>
+  <si>
+    <t>ライフカード</t>
+  </si>
+  <si>
+    <t>楽天カード株式会社</t>
+  </si>
+  <si>
+    <t>楽天カード</t>
+  </si>
+  <si>
+    <t>ワイジェイカード株式会社</t>
+  </si>
+  <si>
+    <t>KCカード</t>
+  </si>
+  <si>
+    <t>株式会社アプラス</t>
+  </si>
+  <si>
+    <t>アプラスカード</t>
+  </si>
+  <si>
+    <t>全日信販株式会社</t>
+  </si>
+  <si>
+    <t>AJクレジットカード</t>
+  </si>
+  <si>
+    <t>日本海信販株式会社</t>
+  </si>
+  <si>
+    <t>日本海信販カード</t>
+  </si>
+  <si>
+    <t>山陰信販株式会社</t>
+  </si>
+  <si>
+    <t>SCカード</t>
+  </si>
+  <si>
+    <t>九州日本信販株式会社</t>
+  </si>
+  <si>
+    <t>九信販 あそべるカード</t>
+  </si>
+  <si>
+    <t>株式会社オーシー</t>
+  </si>
+  <si>
+    <t>OCカード</t>
+  </si>
+  <si>
+    <t>株式会社宮崎信販</t>
+  </si>
+  <si>
+    <t>MCカード</t>
+  </si>
+  <si>
+    <t>株式会社OCS</t>
+  </si>
+  <si>
+    <t>OCSカード</t>
+  </si>
+  <si>
+    <t>株式会社ほくせん</t>
+  </si>
+  <si>
+    <t>ほくせんカード</t>
+  </si>
+  <si>
+    <t>株式会社　日専連旭川</t>
+  </si>
+  <si>
+    <t>日専連カード</t>
+  </si>
+  <si>
+    <t>第一信販株式会社</t>
+  </si>
+  <si>
+    <t>NCカード</t>
+  </si>
+  <si>
+    <t>株式会社エヌシーくまもと</t>
+  </si>
+  <si>
+    <t>株式会社エヌシーガイドショップ</t>
+  </si>
+  <si>
+    <t>トヨタファイナンス株式会社</t>
+  </si>
+  <si>
+    <t>メーカー系</t>
+  </si>
+  <si>
+    <t>TOYOTA TS CUBIC CARD</t>
+  </si>
+  <si>
+    <t>株式会社日産フィナンシャルサービス</t>
+  </si>
+  <si>
+    <t>日産カード</t>
+  </si>
+  <si>
+    <t>日立キャピタル株式会社</t>
+  </si>
+  <si>
+    <t>Hitachi Card</t>
+  </si>
+  <si>
+    <t>三井住友トラスト・パナソニックファイナンス株式会社</t>
+  </si>
+  <si>
+    <t>パナカード</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +519,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -389,6 +663,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -401,11 +680,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,6 +721,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://www10.a8.net/0.gif?a8mat=2HSIUB+APZ2I+111W+6S4SLU">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8427BE06-0351-4BD3-AEBE-9FE0F0730CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1295400"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="https://www15.a8.net/0.gif?a8mat=2HSIUB+D3PHM+1E32+609HU">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3772E308-6D6E-4A78-BE66-3C206B28D147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1504950"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,7 +1150,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +1313,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="A14:C25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,10 +1371,10 @@
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
@@ -966,7 +1393,7 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -990,7 +1417,7 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1034,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B25:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,16 +1476,16 @@
   </cols>
   <sheetData>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1067,7 +1494,7 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1079,7 +1506,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1094,4 +1521,1161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="2:18" ht="39" x14ac:dyDescent="0.3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+    </row>
+    <row r="27" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+    </row>
+    <row r="28" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+    </row>
+    <row r="32" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+    </row>
+    <row r="33" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+    </row>
+    <row r="34" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="210">
   <si>
     <t>存储内容</t>
   </si>
@@ -494,12 +494,204 @@
   <si>
     <t>パナカード</t>
   </si>
+  <si>
+    <t>流通・石油系</t>
+  </si>
+  <si>
+    <t>株式会社クレディセゾン</t>
+  </si>
+  <si>
+    <t>セゾンカード</t>
+  </si>
+  <si>
+    <t>イオンクレジットサービス株式会社</t>
+  </si>
+  <si>
+    <t>イオンカード</t>
+  </si>
+  <si>
+    <t>株式会社エムアイカード</t>
+  </si>
+  <si>
+    <t>エムアイカード</t>
+  </si>
+  <si>
+    <t>株式会社エポスカード</t>
+  </si>
+  <si>
+    <t>エポスカード</t>
+  </si>
+  <si>
+    <t>株式会社UCS</t>
+  </si>
+  <si>
+    <t>UCSカード</t>
+  </si>
+  <si>
+    <t>ポケットカード株式会社</t>
+  </si>
+  <si>
+    <t>P-oneカード</t>
+  </si>
+  <si>
+    <t>株式会社セブン・カードサービス</t>
+  </si>
+  <si>
+    <t>セブンカード</t>
+  </si>
+  <si>
+    <t>株式会社セブンCSカードサービス</t>
+  </si>
+  <si>
+    <t>クラブ・オン/ミレニアムカード セゾン</t>
+  </si>
+  <si>
+    <t>高島屋クレジット株式会社</t>
+  </si>
+  <si>
+    <t>タカシマヤカード</t>
+  </si>
+  <si>
+    <t>JFRカード株式会社</t>
+  </si>
+  <si>
+    <t>大丸松坂屋カード</t>
+  </si>
+  <si>
+    <t>イズミヤ株式会社</t>
+  </si>
+  <si>
+    <t>イズミヤカード</t>
+  </si>
+  <si>
+    <t>天満屋カードサービス株式会社</t>
+  </si>
+  <si>
+    <t>天満屋カード</t>
+  </si>
+  <si>
+    <t>株式会社ゆめカード</t>
+  </si>
+  <si>
+    <t>ゆめカード</t>
+  </si>
+  <si>
+    <t>株式会社コメリキャピタル</t>
+  </si>
+  <si>
+    <t>コメリカード</t>
+  </si>
+  <si>
+    <t>株式会社ゴールドポイントマーケティング</t>
+  </si>
+  <si>
+    <t>ゴールドポイントカード・プラス</t>
+  </si>
+  <si>
+    <t>ゼビオカード株式会社</t>
+  </si>
+  <si>
+    <t>ゼビオカード</t>
+  </si>
+  <si>
+    <t>ニッセン・ジー・イー・クレジット株式会社</t>
+  </si>
+  <si>
+    <t>マジカルクラブＴカードJCB</t>
+  </si>
+  <si>
+    <t>出光クレジット株式会社</t>
+  </si>
+  <si>
+    <t>出光カード</t>
+  </si>
+  <si>
+    <t>富士シティオ株式会社</t>
+  </si>
+  <si>
+    <t>Tカードプラス</t>
+  </si>
+  <si>
+    <t>交通系</t>
+  </si>
+  <si>
+    <t>西日本旅客鉄道株式会社</t>
+  </si>
+  <si>
+    <t>小田急電鉄株式会社</t>
+  </si>
+  <si>
+    <t>株式会社ビューカード</t>
+  </si>
+  <si>
+    <t>東急カード株式会社</t>
+  </si>
+  <si>
+    <t>株式会社 東武カードビジネス</t>
+  </si>
+  <si>
+    <t>株式会社京阪カード</t>
+  </si>
+  <si>
+    <t>e-kenetカード</t>
+  </si>
+  <si>
+    <t>東武カード</t>
+  </si>
+  <si>
+    <t>TOP&amp;ClubQ JMBカード</t>
+  </si>
+  <si>
+    <t>ビューカード</t>
+  </si>
+  <si>
+    <t>小田急ポイントカード</t>
+  </si>
+  <si>
+    <t>J-WESTカード</t>
+  </si>
+  <si>
+    <t>消費者金融系</t>
+  </si>
+  <si>
+    <t>ACマスターカード</t>
+  </si>
+  <si>
+    <t>独立系</t>
+  </si>
+  <si>
+    <t>SBIカード株式会社</t>
+  </si>
+  <si>
+    <t>NTTファイナンス株式会社</t>
+  </si>
+  <si>
+    <t>株式会社NTTドコモ</t>
+  </si>
+  <si>
+    <t>大和ハウスフィナンシャル株式会社</t>
+  </si>
+  <si>
+    <t>Heart Oneカード</t>
+  </si>
+  <si>
+    <t>Yahoo! JAPANカード</t>
+  </si>
+  <si>
+    <t>DCMX</t>
+  </si>
+  <si>
+    <t>NTTグループカード</t>
+  </si>
+  <si>
+    <t>SBIカード</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +721,13 @@
     <font>
       <sz val="12"/>
       <color theme="3"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -645,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -668,6 +867,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -680,7 +887,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,21 +905,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1371,10 +1573,10 @@
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1393,7 +1595,7 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1417,7 +1619,7 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1525,1143 +1727,2082 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R38"/>
+  <dimension ref="B2:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="63.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="14.85546875" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="2:18" ht="39" x14ac:dyDescent="0.3">
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="2:18" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="E6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="E7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="E8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
+      <c r="E9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
+      <c r="E10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="E11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="E12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
+      <c r="E13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
+      <c r="E14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="E16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="E17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
+      <c r="E18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
     </row>
     <row r="19" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="E19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
     </row>
     <row r="20" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="E20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
+      <c r="E22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
     </row>
     <row r="23" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
+      <c r="E23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
+      <c r="E24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
+      <c r="E25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
     </row>
     <row r="26" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
     </row>
     <row r="27" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
+      <c r="E27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
     </row>
     <row r="28" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="E28" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
     </row>
     <row r="29" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
+      <c r="E29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
+      <c r="E30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
     </row>
     <row r="31" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
+      <c r="E31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
+      <c r="E32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
     </row>
     <row r="33" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
+      <c r="E33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
+      <c r="E34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
     </row>
     <row r="35" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
+      <c r="E35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
     </row>
     <row r="36" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
+      <c r="E36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
     </row>
     <row r="37" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
     </row>
     <row r="38" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
+      <c r="E38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+    </row>
+    <row r="40" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+    </row>
+    <row r="41" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+    </row>
+    <row r="42" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+    </row>
+    <row r="43" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+    </row>
+    <row r="44" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+    </row>
+    <row r="45" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+    </row>
+    <row r="46" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+    </row>
+    <row r="47" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+    </row>
+    <row r="48" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+    </row>
+    <row r="49" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+    </row>
+    <row r="50" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+    </row>
+    <row r="51" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+    </row>
+    <row r="52" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+    </row>
+    <row r="53" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+    </row>
+    <row r="54" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+    </row>
+    <row r="55" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+    </row>
+    <row r="56" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+    </row>
+    <row r="57" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+    </row>
+    <row r="58" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+    </row>
+    <row r="59" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+    </row>
+    <row r="60" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+    </row>
+    <row r="61" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+    </row>
+    <row r="62" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+    </row>
+    <row r="63" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+    </row>
+    <row r="64" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+    </row>
+    <row r="65" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+    </row>
+    <row r="66" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+    </row>
+    <row r="67" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+    </row>
+    <row r="68" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+    </row>
+    <row r="69" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2676,6 +3817,7 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="209">
   <si>
     <t>存储内容</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>SBIカード</t>
+  </si>
+  <si>
+    <t>三井住友VISAカード,三井住友マスターカード</t>
   </si>
 </sst>
 </file>
@@ -878,6 +881,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -895,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,10 +1694,10 @@
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1737,7 +1740,7 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1873,13 +1876,13 @@
   <sheetData>
     <row r="2" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -1894,10 +1897,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -3661,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,13 +3687,13 @@
   <sheetData>
     <row r="2" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -3705,10 +3708,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -3775,12 +3778,14 @@
         <v>73</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>

--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="classloader" sheetId="3" r:id="rId3"/>
     <sheet name="jp-card-issuer" sheetId="4" r:id="rId4"/>
     <sheet name="jp-card-acquirer" sheetId="5" r:id="rId5"/>
+    <sheet name="finance-accouting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="225">
   <si>
     <t>存储内容</t>
   </si>
@@ -683,6 +684,64 @@
   </si>
   <si>
     <t>三井住友VISAカード,三井住友マスターカード</t>
+  </si>
+  <si>
+    <t>财务系统</t>
+  </si>
+  <si>
+    <t>交易流水
+记账凭证
+分户账户（外）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多为实时
+</t>
+  </si>
+  <si>
+    <t>单式记账法</t>
+  </si>
+  <si>
+    <t>业务系统</t>
+  </si>
+  <si>
+    <t>财务查询
+会计系统的数据来源</t>
+  </si>
+  <si>
+    <t>会计系统</t>
+  </si>
+  <si>
+    <t>日切
+试算平衡
+科目汇总
+分户日余额
+会计分录流水
+分户账户（内）</t>
+  </si>
+  <si>
+    <t>多为异步</t>
+  </si>
+  <si>
+    <t>复试记账法</t>
+  </si>
+  <si>
+    <t>会计报表
+核算系统的数据来源</t>
+  </si>
+  <si>
+    <t>功能模块</t>
+  </si>
+  <si>
+    <t>记账时间</t>
+  </si>
+  <si>
+    <t>记账方法</t>
+  </si>
+  <si>
+    <t>数据来源</t>
+  </si>
+  <si>
+    <t>主要用途</t>
   </si>
 </sst>
 </file>
@@ -731,7 +790,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +818,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -902,6 +967,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3664,7 +3734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5470,4 +5540,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="28" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
-    <sheet name="java-variables" sheetId="2" r:id="rId2"/>
-    <sheet name="classloader" sheetId="3" r:id="rId3"/>
-    <sheet name="jp-card-issuer" sheetId="4" r:id="rId4"/>
-    <sheet name="jp-card-acquirer" sheetId="5" r:id="rId5"/>
-    <sheet name="finance-accouting" sheetId="6" r:id="rId6"/>
+    <sheet name="jvm-gc" sheetId="7" r:id="rId2"/>
+    <sheet name="java-variables" sheetId="2" r:id="rId3"/>
+    <sheet name="classloader" sheetId="3" r:id="rId4"/>
+    <sheet name="jp-card-issuer" sheetId="4" r:id="rId5"/>
+    <sheet name="jp-card-acquirer" sheetId="5" r:id="rId6"/>
+    <sheet name="finance-accouting" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="239">
   <si>
     <t>存储内容</t>
   </si>
@@ -742,6 +744,55 @@
   </si>
   <si>
     <t>主要用途</t>
+  </si>
+  <si>
+    <t>Minor GC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major GC </t>
+  </si>
+  <si>
+    <t>Full GC</t>
+  </si>
+  <si>
+    <t>Major GC is cleaning the Tenured space.</t>
+  </si>
+  <si>
+    <t>Type GC</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1 </t>
+  </si>
+  <si>
+    <t>When happens</t>
+  </si>
+  <si>
+    <t>Collecting garbage from Young space (consisting of Eden and Survivor spaces) is called a Minor GC.
+对新生代堆进行GC。频率比较高，因为大部分对象的存活寿命较短，在新生代里被回收。性能耗费较小。</t>
+  </si>
+  <si>
+    <t>Full GC is cleaning the entire Heap – both Young and Tenured spaces.
+全堆范围的GC。默认堆空间使用到达80%(可调整)的时候会触发FGC。以我们生产环境为例，一般比较少会触发</t>
+  </si>
+  <si>
+    <t>1.old空间不足；
+2.perm空间不足；
+3.显示调用System.gc() ，包括RMI等的定时触发;
+4.YGC时的悲观策略；
+5.dump live的内存信息时(jmap –dump:live)。</t>
+  </si>
+  <si>
+    <t>1. edn空间不足
+when JVM is unable to allocate space for a new Object, e.g. the Eden is getting full</t>
   </si>
 </sst>
 </file>
@@ -907,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -949,6 +1000,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -967,11 +1023,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,7 +1597,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,10 +1757,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,10 +1910,10 @@
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1786,7 +1932,7 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1810,7 +1956,7 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1850,12 +1996,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B25:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +2062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
@@ -1967,10 +2113,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -3730,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
@@ -3778,10 +3924,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -5542,11 +5688,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5562,62 +5708,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="21" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="20" t="s">
         <v>219</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="finance-accouting" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jp-card-issuer'!$B$2:$M$68</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -958,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1005,6 +1008,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1023,8 +1029,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1759,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,13 +1783,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="22" t="s">
         <v>234</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1910,10 +1916,10 @@
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1956,7 +1962,7 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
@@ -2066,11 +2072,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,10 +2119,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -2256,11 +2262,11 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="33" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3867,6 +3873,9 @@
       <c r="M68" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:M68">
+    <filterColumn colId="8" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="J2:K2"/>
   </mergeCells>
@@ -3924,10 +3933,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>

--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="22995" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="java-variables" sheetId="2" r:id="rId3"/>
     <sheet name="classloader" sheetId="3" r:id="rId4"/>
     <sheet name="jp-card-issuer" sheetId="4" r:id="rId5"/>
-    <sheet name="jp-card-acquirer" sheetId="5" r:id="rId6"/>
-    <sheet name="finance-accouting" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="encryption-algorithm" sheetId="9" r:id="rId6"/>
+    <sheet name="jp-card-acquirer" sheetId="5" r:id="rId7"/>
+    <sheet name="finance-accouting" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jp-card-issuer'!$B$2:$M$68</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="253">
   <si>
     <t>存储内容</t>
   </si>
@@ -797,12 +798,54 @@
     <t>1. edn空间不足
 when JVM is unable to allocate space for a new Object, e.g. the Eden is getting full</t>
   </si>
+  <si>
+    <t>Symmetric</t>
+  </si>
+  <si>
+    <t>Asymmetric</t>
+  </si>
+  <si>
+    <t>AES(AES-128,AES-192,AES-256)</t>
+  </si>
+  <si>
+    <t>Blowfish</t>
+  </si>
+  <si>
+    <t>Twofish</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>3DES</t>
+  </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t>Diffie-Hellman key exchange</t>
+  </si>
+  <si>
+    <t>RSA asymmtric algorithm</t>
+  </si>
+  <si>
+    <t>SHA-224</t>
+  </si>
+  <si>
+    <t>SHA-256</t>
+  </si>
+  <si>
+    <t>SHA-386</t>
+  </si>
+  <si>
+    <t>SHA-512</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +885,14 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -961,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1011,6 +1062,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1029,9 +1083,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1916,10 +1968,10 @@
     </row>
     <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1938,7 +1990,7 @@
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1962,7 +2014,7 @@
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2119,10 +2171,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -2266,7 +2318,7 @@
       <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3886,6 +3938,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M68"/>
   <sheetViews>
@@ -3933,10 +4069,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -5697,7 +5833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G4"/>
   <sheetViews>
@@ -5779,7 +5915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>

--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lei.du/tony-workspace/duleitony-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27796BA4-BEB2-B04C-89AE-DFB667094A3B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4864F-256B-B245-9EC6-C707F6D99335}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34840" yWindow="1060" windowWidth="28000" windowHeight="17540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="28000" windowHeight="17540" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="356">
   <si>
     <t>存储内容</t>
   </si>
@@ -964,10 +964,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SMCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BASEⅠ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1087,11 +1083,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Direct
-（CREPICO, GMO-FG）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MJ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1155,6 +1146,97 @@
   </si>
   <si>
     <t>ACQ</t>
+  </si>
+  <si>
+    <t>MJ = MasterCard Japan</t>
+  </si>
+  <si>
+    <t>GCMS = Global Clearing Management System</t>
+  </si>
+  <si>
+    <t>CUP = China UnionPay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDS = Credit Data System クレジットデータ伝送システム </t>
+  </si>
+  <si>
+    <t>GMO-FG = GMO Financial Gate</t>
+  </si>
+  <si>
+    <t>Direct
+（CREPICO, GMO-FG）</t>
+  </si>
+  <si>
+    <t>CREPiCO</t>
+  </si>
+  <si>
+    <t>CREPiCO = クレピコ SEIKO Solutions K.k.</t>
+  </si>
+  <si>
+    <t>GCAN = ジー・キャン GLORY</t>
+  </si>
+  <si>
+    <t>C-REX = JTB</t>
+  </si>
+  <si>
+    <t>C-REX,
+CREPICO,
+GMO-FG,
+G-CAN</t>
+  </si>
+  <si>
+    <t>JET-S</t>
+  </si>
+  <si>
+    <t>C-REX</t>
+  </si>
+  <si>
+    <t>GMO-FG</t>
+  </si>
+  <si>
+    <t>G-CAN</t>
+  </si>
+  <si>
+    <t>CAFIS</t>
+  </si>
+  <si>
+    <t>JCN</t>
+  </si>
+  <si>
+    <t>INFOX-NET</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>JTRANS</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>JTB</t>
+  </si>
+  <si>
+    <t>SEIKO Sulotions K.k. Taxi</t>
+  </si>
+  <si>
+    <t>Glory 診療費支払機</t>
+  </si>
+  <si>
+    <t>GMOフィナンシャルゲート株式会社 ハイブリッド新型端末</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>情報処理センター</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1680,6 +1762,66 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1698,70 +1840,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,26 +1870,74 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1815,77 +1951,35 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7494,2308 +7588,2408 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E1FA1B-4CD5-374F-9B3D-692D90889D71}">
-  <dimension ref="B2:X76"/>
+  <dimension ref="B2:X85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH50" sqref="AH50"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AC103" sqref="AC103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7" max="8" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9" max="10" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11" max="12" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13" max="15" width="2.6640625" style="35" customWidth="1"/>
-    <col min="16" max="17" width="4.6640625" style="35" customWidth="1"/>
-    <col min="18" max="19" width="2.6640625" style="35" customWidth="1"/>
-    <col min="20" max="21" width="4.6640625" style="35" customWidth="1"/>
-    <col min="22" max="23" width="2.6640625" style="35" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" style="35" customWidth="1"/>
-    <col min="25" max="25" width="1.6640625" style="35" customWidth="1"/>
-    <col min="26" max="256" width="9" style="35"/>
-    <col min="257" max="257" width="1.6640625" style="35" customWidth="1"/>
-    <col min="258" max="258" width="8.6640625" style="35" customWidth="1"/>
-    <col min="259" max="259" width="2.6640625" style="35" customWidth="1"/>
-    <col min="260" max="260" width="10.6640625" style="35" customWidth="1"/>
-    <col min="261" max="262" width="2.6640625" style="35" customWidth="1"/>
-    <col min="263" max="264" width="4.6640625" style="35" customWidth="1"/>
-    <col min="265" max="266" width="2.6640625" style="35" customWidth="1"/>
-    <col min="267" max="268" width="4.6640625" style="35" customWidth="1"/>
-    <col min="269" max="271" width="2.6640625" style="35" customWidth="1"/>
-    <col min="272" max="273" width="4.6640625" style="35" customWidth="1"/>
-    <col min="274" max="275" width="2.6640625" style="35" customWidth="1"/>
-    <col min="276" max="277" width="4.6640625" style="35" customWidth="1"/>
-    <col min="278" max="279" width="2.6640625" style="35" customWidth="1"/>
-    <col min="280" max="280" width="10.6640625" style="35" customWidth="1"/>
-    <col min="281" max="281" width="1.6640625" style="35" customWidth="1"/>
-    <col min="282" max="512" width="9" style="35"/>
-    <col min="513" max="513" width="1.6640625" style="35" customWidth="1"/>
-    <col min="514" max="514" width="8.6640625" style="35" customWidth="1"/>
-    <col min="515" max="515" width="2.6640625" style="35" customWidth="1"/>
-    <col min="516" max="516" width="10.6640625" style="35" customWidth="1"/>
-    <col min="517" max="518" width="2.6640625" style="35" customWidth="1"/>
-    <col min="519" max="520" width="4.6640625" style="35" customWidth="1"/>
-    <col min="521" max="522" width="2.6640625" style="35" customWidth="1"/>
-    <col min="523" max="524" width="4.6640625" style="35" customWidth="1"/>
-    <col min="525" max="527" width="2.6640625" style="35" customWidth="1"/>
-    <col min="528" max="529" width="4.6640625" style="35" customWidth="1"/>
-    <col min="530" max="531" width="2.6640625" style="35" customWidth="1"/>
-    <col min="532" max="533" width="4.6640625" style="35" customWidth="1"/>
-    <col min="534" max="535" width="2.6640625" style="35" customWidth="1"/>
-    <col min="536" max="536" width="10.6640625" style="35" customWidth="1"/>
-    <col min="537" max="537" width="1.6640625" style="35" customWidth="1"/>
-    <col min="538" max="768" width="9" style="35"/>
-    <col min="769" max="769" width="1.6640625" style="35" customWidth="1"/>
-    <col min="770" max="770" width="8.6640625" style="35" customWidth="1"/>
-    <col min="771" max="771" width="2.6640625" style="35" customWidth="1"/>
-    <col min="772" max="772" width="10.6640625" style="35" customWidth="1"/>
-    <col min="773" max="774" width="2.6640625" style="35" customWidth="1"/>
-    <col min="775" max="776" width="4.6640625" style="35" customWidth="1"/>
-    <col min="777" max="778" width="2.6640625" style="35" customWidth="1"/>
-    <col min="779" max="780" width="4.6640625" style="35" customWidth="1"/>
-    <col min="781" max="783" width="2.6640625" style="35" customWidth="1"/>
-    <col min="784" max="785" width="4.6640625" style="35" customWidth="1"/>
-    <col min="786" max="787" width="2.6640625" style="35" customWidth="1"/>
-    <col min="788" max="789" width="4.6640625" style="35" customWidth="1"/>
-    <col min="790" max="791" width="2.6640625" style="35" customWidth="1"/>
-    <col min="792" max="792" width="10.6640625" style="35" customWidth="1"/>
-    <col min="793" max="793" width="1.6640625" style="35" customWidth="1"/>
-    <col min="794" max="1024" width="9" style="35"/>
-    <col min="1025" max="1025" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1026" max="1026" width="8.6640625" style="35" customWidth="1"/>
-    <col min="1027" max="1027" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1028" max="1028" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1029" max="1030" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1031" max="1032" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1033" max="1034" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1035" max="1036" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1037" max="1039" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1040" max="1041" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1042" max="1043" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1044" max="1045" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1046" max="1047" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1048" max="1048" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1049" max="1049" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1050" max="1280" width="9" style="35"/>
-    <col min="1281" max="1281" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1282" max="1282" width="8.6640625" style="35" customWidth="1"/>
-    <col min="1283" max="1283" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1284" max="1284" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1285" max="1286" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1287" max="1288" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1289" max="1290" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1291" max="1292" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1293" max="1295" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1296" max="1297" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1298" max="1299" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1300" max="1301" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1302" max="1303" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1304" max="1304" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1305" max="1305" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1306" max="1536" width="9" style="35"/>
-    <col min="1537" max="1537" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1538" max="1538" width="8.6640625" style="35" customWidth="1"/>
-    <col min="1539" max="1539" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1540" max="1540" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1541" max="1542" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1543" max="1544" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1545" max="1546" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1547" max="1548" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1549" max="1551" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1552" max="1553" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1554" max="1555" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1556" max="1557" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1558" max="1559" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1560" max="1560" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1561" max="1561" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1562" max="1792" width="9" style="35"/>
-    <col min="1793" max="1793" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1794" max="1794" width="8.6640625" style="35" customWidth="1"/>
-    <col min="1795" max="1795" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1796" max="1796" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1797" max="1798" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1799" max="1800" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1801" max="1802" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1803" max="1804" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1805" max="1807" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1808" max="1809" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1810" max="1811" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1812" max="1813" width="4.6640625" style="35" customWidth="1"/>
-    <col min="1814" max="1815" width="2.6640625" style="35" customWidth="1"/>
-    <col min="1816" max="1816" width="10.6640625" style="35" customWidth="1"/>
-    <col min="1817" max="1817" width="1.6640625" style="35" customWidth="1"/>
-    <col min="1818" max="2048" width="9" style="35"/>
-    <col min="2049" max="2049" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2050" max="2050" width="8.6640625" style="35" customWidth="1"/>
-    <col min="2051" max="2051" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2052" max="2052" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2053" max="2054" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2055" max="2056" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2057" max="2058" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2059" max="2060" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2061" max="2063" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2064" max="2065" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2066" max="2067" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2068" max="2069" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2070" max="2071" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2072" max="2072" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2073" max="2073" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2074" max="2304" width="9" style="35"/>
-    <col min="2305" max="2305" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2306" max="2306" width="8.6640625" style="35" customWidth="1"/>
-    <col min="2307" max="2307" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2308" max="2308" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2309" max="2310" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2311" max="2312" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2313" max="2314" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2315" max="2316" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2317" max="2319" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2320" max="2321" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2322" max="2323" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2324" max="2325" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2326" max="2327" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2328" max="2328" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2329" max="2329" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2330" max="2560" width="9" style="35"/>
-    <col min="2561" max="2561" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2562" max="2562" width="8.6640625" style="35" customWidth="1"/>
-    <col min="2563" max="2563" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2564" max="2564" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2565" max="2566" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2567" max="2568" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2569" max="2570" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2571" max="2572" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2573" max="2575" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2576" max="2577" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2578" max="2579" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2580" max="2581" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2582" max="2583" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2584" max="2584" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2585" max="2585" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2586" max="2816" width="9" style="35"/>
-    <col min="2817" max="2817" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2818" max="2818" width="8.6640625" style="35" customWidth="1"/>
-    <col min="2819" max="2819" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2820" max="2820" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2821" max="2822" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2823" max="2824" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2825" max="2826" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2827" max="2828" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2829" max="2831" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2832" max="2833" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2834" max="2835" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2836" max="2837" width="4.6640625" style="35" customWidth="1"/>
-    <col min="2838" max="2839" width="2.6640625" style="35" customWidth="1"/>
-    <col min="2840" max="2840" width="10.6640625" style="35" customWidth="1"/>
-    <col min="2841" max="2841" width="1.6640625" style="35" customWidth="1"/>
-    <col min="2842" max="3072" width="9" style="35"/>
-    <col min="3073" max="3073" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3074" max="3074" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3075" max="3075" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3076" max="3076" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3077" max="3078" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3079" max="3080" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3081" max="3082" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3083" max="3084" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3085" max="3087" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3088" max="3089" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3090" max="3091" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3092" max="3093" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3094" max="3095" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3096" max="3096" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3097" max="3097" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3098" max="3328" width="9" style="35"/>
-    <col min="3329" max="3329" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3330" max="3330" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3331" max="3331" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3332" max="3332" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3333" max="3334" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3335" max="3336" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3337" max="3338" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3339" max="3340" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3341" max="3343" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3344" max="3345" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3346" max="3347" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3348" max="3349" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3350" max="3351" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3352" max="3352" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3353" max="3353" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3354" max="3584" width="9" style="35"/>
-    <col min="3585" max="3585" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3586" max="3586" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3587" max="3587" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3588" max="3588" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3589" max="3590" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3591" max="3592" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3593" max="3594" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3595" max="3596" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3597" max="3599" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3600" max="3601" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3602" max="3603" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3604" max="3605" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3606" max="3607" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3608" max="3608" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3609" max="3609" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3610" max="3840" width="9" style="35"/>
-    <col min="3841" max="3841" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3842" max="3842" width="8.6640625" style="35" customWidth="1"/>
-    <col min="3843" max="3843" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3844" max="3844" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3845" max="3846" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3847" max="3848" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3849" max="3850" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3851" max="3852" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3853" max="3855" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3856" max="3857" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3858" max="3859" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3860" max="3861" width="4.6640625" style="35" customWidth="1"/>
-    <col min="3862" max="3863" width="2.6640625" style="35" customWidth="1"/>
-    <col min="3864" max="3864" width="10.6640625" style="35" customWidth="1"/>
-    <col min="3865" max="3865" width="1.6640625" style="35" customWidth="1"/>
-    <col min="3866" max="4096" width="9" style="35"/>
-    <col min="4097" max="4097" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4098" max="4098" width="8.6640625" style="35" customWidth="1"/>
-    <col min="4099" max="4099" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4100" max="4100" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4101" max="4102" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4103" max="4104" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4105" max="4106" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4107" max="4108" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4109" max="4111" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4112" max="4113" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4114" max="4115" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4116" max="4117" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4118" max="4119" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4120" max="4120" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4121" max="4121" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4122" max="4352" width="9" style="35"/>
-    <col min="4353" max="4353" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4354" max="4354" width="8.6640625" style="35" customWidth="1"/>
-    <col min="4355" max="4355" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4356" max="4356" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4357" max="4358" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4359" max="4360" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4361" max="4362" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4363" max="4364" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4365" max="4367" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4368" max="4369" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4370" max="4371" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4372" max="4373" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4374" max="4375" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4376" max="4376" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4377" max="4377" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4378" max="4608" width="9" style="35"/>
-    <col min="4609" max="4609" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4610" max="4610" width="8.6640625" style="35" customWidth="1"/>
-    <col min="4611" max="4611" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4612" max="4612" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4613" max="4614" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4615" max="4616" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4617" max="4618" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4619" max="4620" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4621" max="4623" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4624" max="4625" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4626" max="4627" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4628" max="4629" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4630" max="4631" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4632" max="4632" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4633" max="4633" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4634" max="4864" width="9" style="35"/>
-    <col min="4865" max="4865" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4866" max="4866" width="8.6640625" style="35" customWidth="1"/>
-    <col min="4867" max="4867" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4868" max="4868" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4869" max="4870" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4871" max="4872" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4873" max="4874" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4875" max="4876" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4877" max="4879" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4880" max="4881" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4882" max="4883" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4884" max="4885" width="4.6640625" style="35" customWidth="1"/>
-    <col min="4886" max="4887" width="2.6640625" style="35" customWidth="1"/>
-    <col min="4888" max="4888" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4889" max="4889" width="1.6640625" style="35" customWidth="1"/>
-    <col min="4890" max="5120" width="9" style="35"/>
-    <col min="5121" max="5121" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5122" max="5122" width="8.6640625" style="35" customWidth="1"/>
-    <col min="5123" max="5123" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5124" max="5124" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5125" max="5126" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5127" max="5128" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5129" max="5130" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5131" max="5132" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5133" max="5135" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5136" max="5137" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5138" max="5139" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5140" max="5141" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5142" max="5143" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5144" max="5144" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5145" max="5145" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5146" max="5376" width="9" style="35"/>
-    <col min="5377" max="5377" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5378" max="5378" width="8.6640625" style="35" customWidth="1"/>
-    <col min="5379" max="5379" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5380" max="5380" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5381" max="5382" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5383" max="5384" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5385" max="5386" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5387" max="5388" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5389" max="5391" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5392" max="5393" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5394" max="5395" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5396" max="5397" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5398" max="5399" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5400" max="5400" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5401" max="5401" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5402" max="5632" width="9" style="35"/>
-    <col min="5633" max="5633" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5634" max="5634" width="8.6640625" style="35" customWidth="1"/>
-    <col min="5635" max="5635" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5636" max="5636" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5637" max="5638" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5639" max="5640" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5641" max="5642" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5643" max="5644" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5645" max="5647" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5648" max="5649" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5650" max="5651" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5652" max="5653" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5654" max="5655" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5656" max="5656" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5657" max="5657" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5658" max="5888" width="9" style="35"/>
-    <col min="5889" max="5889" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5890" max="5890" width="8.6640625" style="35" customWidth="1"/>
-    <col min="5891" max="5891" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5892" max="5892" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5893" max="5894" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5895" max="5896" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5897" max="5898" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5899" max="5900" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5901" max="5903" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5904" max="5905" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5906" max="5907" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5908" max="5909" width="4.6640625" style="35" customWidth="1"/>
-    <col min="5910" max="5911" width="2.6640625" style="35" customWidth="1"/>
-    <col min="5912" max="5912" width="10.6640625" style="35" customWidth="1"/>
-    <col min="5913" max="5913" width="1.6640625" style="35" customWidth="1"/>
-    <col min="5914" max="6144" width="9" style="35"/>
-    <col min="6145" max="6145" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6146" max="6146" width="8.6640625" style="35" customWidth="1"/>
-    <col min="6147" max="6147" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6148" max="6148" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6149" max="6150" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6151" max="6152" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6153" max="6154" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6155" max="6156" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6157" max="6159" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6160" max="6161" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6162" max="6163" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6164" max="6165" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6166" max="6167" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6168" max="6168" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6169" max="6169" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6170" max="6400" width="9" style="35"/>
-    <col min="6401" max="6401" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6402" max="6402" width="8.6640625" style="35" customWidth="1"/>
-    <col min="6403" max="6403" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6404" max="6404" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6405" max="6406" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6407" max="6408" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6409" max="6410" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6411" max="6412" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6413" max="6415" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6416" max="6417" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6418" max="6419" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6420" max="6421" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6422" max="6423" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6424" max="6424" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6425" max="6425" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6426" max="6656" width="9" style="35"/>
-    <col min="6657" max="6657" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6658" max="6658" width="8.6640625" style="35" customWidth="1"/>
-    <col min="6659" max="6659" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6660" max="6660" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6661" max="6662" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6663" max="6664" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6665" max="6666" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6667" max="6668" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6669" max="6671" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6672" max="6673" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6674" max="6675" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6676" max="6677" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6678" max="6679" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6680" max="6680" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6681" max="6681" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6682" max="6912" width="9" style="35"/>
-    <col min="6913" max="6913" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6914" max="6914" width="8.6640625" style="35" customWidth="1"/>
-    <col min="6915" max="6915" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6916" max="6916" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6917" max="6918" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6919" max="6920" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6921" max="6922" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6923" max="6924" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6925" max="6927" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6928" max="6929" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6930" max="6931" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6932" max="6933" width="4.6640625" style="35" customWidth="1"/>
-    <col min="6934" max="6935" width="2.6640625" style="35" customWidth="1"/>
-    <col min="6936" max="6936" width="10.6640625" style="35" customWidth="1"/>
-    <col min="6937" max="6937" width="1.6640625" style="35" customWidth="1"/>
-    <col min="6938" max="7168" width="9" style="35"/>
-    <col min="7169" max="7169" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7170" max="7170" width="8.6640625" style="35" customWidth="1"/>
-    <col min="7171" max="7171" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7172" max="7172" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7173" max="7174" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7175" max="7176" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7177" max="7178" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7179" max="7180" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7181" max="7183" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7184" max="7185" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7186" max="7187" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7188" max="7189" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7190" max="7191" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7192" max="7192" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7193" max="7193" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7194" max="7424" width="9" style="35"/>
-    <col min="7425" max="7425" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7426" max="7426" width="8.6640625" style="35" customWidth="1"/>
-    <col min="7427" max="7427" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7428" max="7428" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7429" max="7430" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7431" max="7432" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7433" max="7434" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7435" max="7436" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7437" max="7439" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7440" max="7441" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7442" max="7443" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7444" max="7445" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7446" max="7447" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7448" max="7448" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7449" max="7449" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7450" max="7680" width="9" style="35"/>
-    <col min="7681" max="7681" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7682" max="7682" width="8.6640625" style="35" customWidth="1"/>
-    <col min="7683" max="7683" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7684" max="7684" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7685" max="7686" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7687" max="7688" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7689" max="7690" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7691" max="7692" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7693" max="7695" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7696" max="7697" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7698" max="7699" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7700" max="7701" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7702" max="7703" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7704" max="7704" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7705" max="7705" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7706" max="7936" width="9" style="35"/>
-    <col min="7937" max="7937" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7938" max="7938" width="8.6640625" style="35" customWidth="1"/>
-    <col min="7939" max="7939" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7940" max="7940" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7941" max="7942" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7943" max="7944" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7945" max="7946" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7947" max="7948" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7949" max="7951" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7952" max="7953" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7954" max="7955" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7956" max="7957" width="4.6640625" style="35" customWidth="1"/>
-    <col min="7958" max="7959" width="2.6640625" style="35" customWidth="1"/>
-    <col min="7960" max="7960" width="10.6640625" style="35" customWidth="1"/>
-    <col min="7961" max="7961" width="1.6640625" style="35" customWidth="1"/>
-    <col min="7962" max="8192" width="9" style="35"/>
-    <col min="8193" max="8193" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8194" max="8194" width="8.6640625" style="35" customWidth="1"/>
-    <col min="8195" max="8195" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8196" max="8196" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8197" max="8198" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8199" max="8200" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8201" max="8202" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8203" max="8204" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8205" max="8207" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8208" max="8209" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8210" max="8211" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8212" max="8213" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8214" max="8215" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8216" max="8216" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8217" max="8217" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8218" max="8448" width="9" style="35"/>
-    <col min="8449" max="8449" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8450" max="8450" width="8.6640625" style="35" customWidth="1"/>
-    <col min="8451" max="8451" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8452" max="8452" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8453" max="8454" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8455" max="8456" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8457" max="8458" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8459" max="8460" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8461" max="8463" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8464" max="8465" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8466" max="8467" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8468" max="8469" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8470" max="8471" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8472" max="8472" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8473" max="8473" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8474" max="8704" width="9" style="35"/>
-    <col min="8705" max="8705" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8706" max="8706" width="8.6640625" style="35" customWidth="1"/>
-    <col min="8707" max="8707" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8708" max="8708" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8709" max="8710" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8711" max="8712" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8713" max="8714" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8715" max="8716" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8717" max="8719" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8720" max="8721" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8722" max="8723" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8724" max="8725" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8726" max="8727" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8728" max="8728" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8729" max="8729" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8730" max="8960" width="9" style="35"/>
-    <col min="8961" max="8961" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8962" max="8962" width="8.6640625" style="35" customWidth="1"/>
-    <col min="8963" max="8963" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8964" max="8964" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8965" max="8966" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8967" max="8968" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8969" max="8970" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8971" max="8972" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8973" max="8975" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8976" max="8977" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8978" max="8979" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8980" max="8981" width="4.6640625" style="35" customWidth="1"/>
-    <col min="8982" max="8983" width="2.6640625" style="35" customWidth="1"/>
-    <col min="8984" max="8984" width="10.6640625" style="35" customWidth="1"/>
-    <col min="8985" max="8985" width="1.6640625" style="35" customWidth="1"/>
-    <col min="8986" max="9216" width="9" style="35"/>
-    <col min="9217" max="9217" width="1.6640625" style="35" customWidth="1"/>
-    <col min="9218" max="9218" width="8.6640625" style="35" customWidth="1"/>
-    <col min="9219" max="9219" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9220" max="9220" width="10.6640625" style="35" customWidth="1"/>
-    <col min="9221" max="9222" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9223" max="9224" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9225" max="9226" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9227" max="9228" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9229" max="9231" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9232" max="9233" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9234" max="9235" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9236" max="9237" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9238" max="9239" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9240" max="9240" width="10.6640625" style="35" customWidth="1"/>
-    <col min="9241" max="9241" width="1.6640625" style="35" customWidth="1"/>
-    <col min="9242" max="9472" width="9" style="35"/>
-    <col min="9473" max="9473" width="1.6640625" style="35" customWidth="1"/>
-    <col min="9474" max="9474" width="8.6640625" style="35" customWidth="1"/>
-    <col min="9475" max="9475" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9476" max="9476" width="10.6640625" style="35" customWidth="1"/>
-    <col min="9477" max="9478" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9479" max="9480" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9481" max="9482" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9483" max="9484" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9485" max="9487" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9488" max="9489" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9490" max="9491" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9492" max="9493" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9494" max="9495" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9496" max="9496" width="10.6640625" style="35" customWidth="1"/>
-    <col min="9497" max="9497" width="1.6640625" style="35" customWidth="1"/>
-    <col min="9498" max="9728" width="9" style="35"/>
-    <col min="9729" max="9729" width="1.6640625" style="35" customWidth="1"/>
-    <col min="9730" max="9730" width="8.6640625" style="35" customWidth="1"/>
-    <col min="9731" max="9731" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9732" max="9732" width="10.6640625" style="35" customWidth="1"/>
-    <col min="9733" max="9734" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9735" max="9736" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9737" max="9738" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9739" max="9740" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9741" max="9743" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9744" max="9745" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9746" max="9747" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9748" max="9749" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9750" max="9751" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9752" max="9752" width="10.6640625" style="35" customWidth="1"/>
-    <col min="9753" max="9753" width="1.6640625" style="35" customWidth="1"/>
-    <col min="9754" max="9984" width="9" style="35"/>
-    <col min="9985" max="9985" width="1.6640625" style="35" customWidth="1"/>
-    <col min="9986" max="9986" width="8.6640625" style="35" customWidth="1"/>
-    <col min="9987" max="9987" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9988" max="9988" width="10.6640625" style="35" customWidth="1"/>
-    <col min="9989" max="9990" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9991" max="9992" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9993" max="9994" width="2.6640625" style="35" customWidth="1"/>
-    <col min="9995" max="9996" width="4.6640625" style="35" customWidth="1"/>
-    <col min="9997" max="9999" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10000" max="10001" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10002" max="10003" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10004" max="10005" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10006" max="10007" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10008" max="10008" width="10.6640625" style="35" customWidth="1"/>
-    <col min="10009" max="10009" width="1.6640625" style="35" customWidth="1"/>
-    <col min="10010" max="10240" width="9" style="35"/>
-    <col min="10241" max="10241" width="1.6640625" style="35" customWidth="1"/>
-    <col min="10242" max="10242" width="8.6640625" style="35" customWidth="1"/>
-    <col min="10243" max="10243" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10244" max="10244" width="10.6640625" style="35" customWidth="1"/>
-    <col min="10245" max="10246" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10247" max="10248" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10249" max="10250" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10251" max="10252" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10253" max="10255" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10256" max="10257" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10258" max="10259" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10260" max="10261" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10262" max="10263" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10264" max="10264" width="10.6640625" style="35" customWidth="1"/>
-    <col min="10265" max="10265" width="1.6640625" style="35" customWidth="1"/>
-    <col min="10266" max="10496" width="9" style="35"/>
-    <col min="10497" max="10497" width="1.6640625" style="35" customWidth="1"/>
-    <col min="10498" max="10498" width="8.6640625" style="35" customWidth="1"/>
-    <col min="10499" max="10499" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10500" max="10500" width="10.6640625" style="35" customWidth="1"/>
-    <col min="10501" max="10502" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10503" max="10504" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10505" max="10506" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10507" max="10508" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10509" max="10511" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10512" max="10513" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10514" max="10515" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10516" max="10517" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10518" max="10519" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10520" max="10520" width="10.6640625" style="35" customWidth="1"/>
-    <col min="10521" max="10521" width="1.6640625" style="35" customWidth="1"/>
-    <col min="10522" max="10752" width="9" style="35"/>
-    <col min="10753" max="10753" width="1.6640625" style="35" customWidth="1"/>
-    <col min="10754" max="10754" width="8.6640625" style="35" customWidth="1"/>
-    <col min="10755" max="10755" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10756" max="10756" width="10.6640625" style="35" customWidth="1"/>
-    <col min="10757" max="10758" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10759" max="10760" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10761" max="10762" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10763" max="10764" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10765" max="10767" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10768" max="10769" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10770" max="10771" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10772" max="10773" width="4.6640625" style="35" customWidth="1"/>
-    <col min="10774" max="10775" width="2.6640625" style="35" customWidth="1"/>
-    <col min="10776" max="10776" width="10.6640625" style="35" customWidth="1"/>
-    <col min="10777" max="10777" width="1.6640625" style="35" customWidth="1"/>
-    <col min="10778" max="11008" width="9" style="35"/>
-    <col min="11009" max="11009" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11010" max="11010" width="8.6640625" style="35" customWidth="1"/>
-    <col min="11011" max="11011" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11012" max="11012" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11013" max="11014" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11015" max="11016" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11017" max="11018" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11019" max="11020" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11021" max="11023" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11024" max="11025" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11026" max="11027" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11028" max="11029" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11030" max="11031" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11032" max="11032" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11033" max="11033" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11034" max="11264" width="9" style="35"/>
-    <col min="11265" max="11265" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11266" max="11266" width="8.6640625" style="35" customWidth="1"/>
-    <col min="11267" max="11267" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11268" max="11268" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11269" max="11270" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11271" max="11272" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11273" max="11274" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11275" max="11276" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11277" max="11279" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11280" max="11281" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11282" max="11283" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11284" max="11285" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11286" max="11287" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11288" max="11288" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11289" max="11289" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11290" max="11520" width="9" style="35"/>
-    <col min="11521" max="11521" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11522" max="11522" width="8.6640625" style="35" customWidth="1"/>
-    <col min="11523" max="11523" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11524" max="11524" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11525" max="11526" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11527" max="11528" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11529" max="11530" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11531" max="11532" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11533" max="11535" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11536" max="11537" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11538" max="11539" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11540" max="11541" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11542" max="11543" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11544" max="11544" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11545" max="11545" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11546" max="11776" width="9" style="35"/>
-    <col min="11777" max="11777" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11778" max="11778" width="8.6640625" style="35" customWidth="1"/>
-    <col min="11779" max="11779" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11780" max="11780" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11781" max="11782" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11783" max="11784" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11785" max="11786" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11787" max="11788" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11789" max="11791" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11792" max="11793" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11794" max="11795" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11796" max="11797" width="4.6640625" style="35" customWidth="1"/>
-    <col min="11798" max="11799" width="2.6640625" style="35" customWidth="1"/>
-    <col min="11800" max="11800" width="10.6640625" style="35" customWidth="1"/>
-    <col min="11801" max="11801" width="1.6640625" style="35" customWidth="1"/>
-    <col min="11802" max="12032" width="9" style="35"/>
-    <col min="12033" max="12033" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12034" max="12034" width="8.6640625" style="35" customWidth="1"/>
-    <col min="12035" max="12035" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12036" max="12036" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12037" max="12038" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12039" max="12040" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12041" max="12042" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12043" max="12044" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12045" max="12047" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12048" max="12049" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12050" max="12051" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12052" max="12053" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12054" max="12055" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12056" max="12056" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12057" max="12057" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12058" max="12288" width="9" style="35"/>
-    <col min="12289" max="12289" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12290" max="12290" width="8.6640625" style="35" customWidth="1"/>
-    <col min="12291" max="12291" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12292" max="12292" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12293" max="12294" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12295" max="12296" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12297" max="12298" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12299" max="12300" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12301" max="12303" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12304" max="12305" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12306" max="12307" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12308" max="12309" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12310" max="12311" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12312" max="12312" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12313" max="12313" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12314" max="12544" width="9" style="35"/>
-    <col min="12545" max="12545" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12546" max="12546" width="8.6640625" style="35" customWidth="1"/>
-    <col min="12547" max="12547" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12548" max="12548" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12549" max="12550" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12551" max="12552" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12553" max="12554" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12555" max="12556" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12557" max="12559" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12560" max="12561" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12562" max="12563" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12564" max="12565" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12566" max="12567" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12568" max="12568" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12569" max="12569" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12570" max="12800" width="9" style="35"/>
-    <col min="12801" max="12801" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12802" max="12802" width="8.6640625" style="35" customWidth="1"/>
-    <col min="12803" max="12803" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12804" max="12804" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12805" max="12806" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12807" max="12808" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12809" max="12810" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12811" max="12812" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12813" max="12815" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12816" max="12817" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12818" max="12819" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12820" max="12821" width="4.6640625" style="35" customWidth="1"/>
-    <col min="12822" max="12823" width="2.6640625" style="35" customWidth="1"/>
-    <col min="12824" max="12824" width="10.6640625" style="35" customWidth="1"/>
-    <col min="12825" max="12825" width="1.6640625" style="35" customWidth="1"/>
-    <col min="12826" max="13056" width="9" style="35"/>
-    <col min="13057" max="13057" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13058" max="13058" width="8.6640625" style="35" customWidth="1"/>
-    <col min="13059" max="13059" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13060" max="13060" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13061" max="13062" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13063" max="13064" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13065" max="13066" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13067" max="13068" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13069" max="13071" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13072" max="13073" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13074" max="13075" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13076" max="13077" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13078" max="13079" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13080" max="13080" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13081" max="13081" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13082" max="13312" width="9" style="35"/>
-    <col min="13313" max="13313" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13314" max="13314" width="8.6640625" style="35" customWidth="1"/>
-    <col min="13315" max="13315" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13316" max="13316" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13317" max="13318" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13319" max="13320" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13321" max="13322" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13323" max="13324" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13325" max="13327" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13328" max="13329" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13330" max="13331" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13332" max="13333" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13334" max="13335" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13336" max="13336" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13337" max="13337" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13338" max="13568" width="9" style="35"/>
-    <col min="13569" max="13569" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13570" max="13570" width="8.6640625" style="35" customWidth="1"/>
-    <col min="13571" max="13571" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13572" max="13572" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13573" max="13574" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13575" max="13576" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13577" max="13578" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13579" max="13580" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13581" max="13583" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13584" max="13585" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13586" max="13587" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13588" max="13589" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13590" max="13591" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13592" max="13592" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13593" max="13593" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13594" max="13824" width="9" style="35"/>
-    <col min="13825" max="13825" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13826" max="13826" width="8.6640625" style="35" customWidth="1"/>
-    <col min="13827" max="13827" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13828" max="13828" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13829" max="13830" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13831" max="13832" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13833" max="13834" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13835" max="13836" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13837" max="13839" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13840" max="13841" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13842" max="13843" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13844" max="13845" width="4.6640625" style="35" customWidth="1"/>
-    <col min="13846" max="13847" width="2.6640625" style="35" customWidth="1"/>
-    <col min="13848" max="13848" width="10.6640625" style="35" customWidth="1"/>
-    <col min="13849" max="13849" width="1.6640625" style="35" customWidth="1"/>
-    <col min="13850" max="14080" width="9" style="35"/>
-    <col min="14081" max="14081" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14082" max="14082" width="8.6640625" style="35" customWidth="1"/>
-    <col min="14083" max="14083" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14084" max="14084" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14085" max="14086" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14087" max="14088" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14089" max="14090" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14091" max="14092" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14093" max="14095" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14096" max="14097" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14098" max="14099" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14100" max="14101" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14102" max="14103" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14104" max="14104" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14105" max="14105" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14106" max="14336" width="9" style="35"/>
-    <col min="14337" max="14337" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14338" max="14338" width="8.6640625" style="35" customWidth="1"/>
-    <col min="14339" max="14339" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14340" max="14340" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14341" max="14342" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14343" max="14344" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14345" max="14346" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14347" max="14348" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14349" max="14351" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14352" max="14353" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14354" max="14355" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14356" max="14357" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14358" max="14359" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14360" max="14360" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14361" max="14361" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14362" max="14592" width="9" style="35"/>
-    <col min="14593" max="14593" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14594" max="14594" width="8.6640625" style="35" customWidth="1"/>
-    <col min="14595" max="14595" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14596" max="14596" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14597" max="14598" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14599" max="14600" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14601" max="14602" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14603" max="14604" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14605" max="14607" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14608" max="14609" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14610" max="14611" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14612" max="14613" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14614" max="14615" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14616" max="14616" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14617" max="14617" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14618" max="14848" width="9" style="35"/>
-    <col min="14849" max="14849" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14850" max="14850" width="8.6640625" style="35" customWidth="1"/>
-    <col min="14851" max="14851" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14852" max="14852" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14853" max="14854" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14855" max="14856" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14857" max="14858" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14859" max="14860" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14861" max="14863" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14864" max="14865" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14866" max="14867" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14868" max="14869" width="4.6640625" style="35" customWidth="1"/>
-    <col min="14870" max="14871" width="2.6640625" style="35" customWidth="1"/>
-    <col min="14872" max="14872" width="10.6640625" style="35" customWidth="1"/>
-    <col min="14873" max="14873" width="1.6640625" style="35" customWidth="1"/>
-    <col min="14874" max="15104" width="9" style="35"/>
-    <col min="15105" max="15105" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15106" max="15106" width="8.6640625" style="35" customWidth="1"/>
-    <col min="15107" max="15107" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15108" max="15108" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15109" max="15110" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15111" max="15112" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15113" max="15114" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15115" max="15116" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15117" max="15119" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15120" max="15121" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15122" max="15123" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15124" max="15125" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15126" max="15127" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15128" max="15128" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15129" max="15129" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15130" max="15360" width="9" style="35"/>
-    <col min="15361" max="15361" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15362" max="15362" width="8.6640625" style="35" customWidth="1"/>
-    <col min="15363" max="15363" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15364" max="15364" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15365" max="15366" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15367" max="15368" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15369" max="15370" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15371" max="15372" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15373" max="15375" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15376" max="15377" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15378" max="15379" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15380" max="15381" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15382" max="15383" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15384" max="15384" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15385" max="15385" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15386" max="15616" width="9" style="35"/>
-    <col min="15617" max="15617" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15618" max="15618" width="8.6640625" style="35" customWidth="1"/>
-    <col min="15619" max="15619" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15620" max="15620" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15621" max="15622" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15623" max="15624" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15625" max="15626" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15627" max="15628" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15629" max="15631" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15632" max="15633" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15634" max="15635" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15636" max="15637" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15638" max="15639" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15640" max="15640" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15641" max="15641" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15642" max="15872" width="9" style="35"/>
-    <col min="15873" max="15873" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15874" max="15874" width="8.6640625" style="35" customWidth="1"/>
-    <col min="15875" max="15875" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15876" max="15876" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15877" max="15878" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15879" max="15880" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15881" max="15882" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15883" max="15884" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15885" max="15887" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15888" max="15889" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15890" max="15891" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15892" max="15893" width="4.6640625" style="35" customWidth="1"/>
-    <col min="15894" max="15895" width="2.6640625" style="35" customWidth="1"/>
-    <col min="15896" max="15896" width="10.6640625" style="35" customWidth="1"/>
-    <col min="15897" max="15897" width="1.6640625" style="35" customWidth="1"/>
-    <col min="15898" max="16128" width="9" style="35"/>
-    <col min="16129" max="16129" width="1.6640625" style="35" customWidth="1"/>
-    <col min="16130" max="16130" width="8.6640625" style="35" customWidth="1"/>
-    <col min="16131" max="16131" width="2.6640625" style="35" customWidth="1"/>
-    <col min="16132" max="16132" width="10.6640625" style="35" customWidth="1"/>
-    <col min="16133" max="16134" width="2.6640625" style="35" customWidth="1"/>
-    <col min="16135" max="16136" width="4.6640625" style="35" customWidth="1"/>
-    <col min="16137" max="16138" width="2.6640625" style="35" customWidth="1"/>
-    <col min="16139" max="16140" width="4.6640625" style="35" customWidth="1"/>
-    <col min="16141" max="16143" width="2.6640625" style="35" customWidth="1"/>
-    <col min="16144" max="16145" width="4.6640625" style="35" customWidth="1"/>
-    <col min="16146" max="16147" width="2.6640625" style="35" customWidth="1"/>
-    <col min="16148" max="16149" width="4.6640625" style="35" customWidth="1"/>
-    <col min="16150" max="16151" width="2.6640625" style="35" customWidth="1"/>
-    <col min="16152" max="16152" width="10.6640625" style="35" customWidth="1"/>
-    <col min="16153" max="16153" width="1.6640625" style="35" customWidth="1"/>
-    <col min="16154" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5" max="6" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7" max="8" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9" max="10" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11" max="12" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13" max="15" width="2.6640625" style="29" customWidth="1"/>
+    <col min="16" max="17" width="4.6640625" style="29" customWidth="1"/>
+    <col min="18" max="19" width="2.6640625" style="29" customWidth="1"/>
+    <col min="20" max="21" width="4.6640625" style="29" customWidth="1"/>
+    <col min="22" max="23" width="2.6640625" style="29" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="29" customWidth="1"/>
+    <col min="25" max="25" width="1.6640625" style="29" customWidth="1"/>
+    <col min="26" max="256" width="9" style="29"/>
+    <col min="257" max="257" width="1.6640625" style="29" customWidth="1"/>
+    <col min="258" max="258" width="8.6640625" style="29" customWidth="1"/>
+    <col min="259" max="259" width="2.6640625" style="29" customWidth="1"/>
+    <col min="260" max="260" width="10.6640625" style="29" customWidth="1"/>
+    <col min="261" max="262" width="2.6640625" style="29" customWidth="1"/>
+    <col min="263" max="264" width="4.6640625" style="29" customWidth="1"/>
+    <col min="265" max="266" width="2.6640625" style="29" customWidth="1"/>
+    <col min="267" max="268" width="4.6640625" style="29" customWidth="1"/>
+    <col min="269" max="271" width="2.6640625" style="29" customWidth="1"/>
+    <col min="272" max="273" width="4.6640625" style="29" customWidth="1"/>
+    <col min="274" max="275" width="2.6640625" style="29" customWidth="1"/>
+    <col min="276" max="277" width="4.6640625" style="29" customWidth="1"/>
+    <col min="278" max="279" width="2.6640625" style="29" customWidth="1"/>
+    <col min="280" max="280" width="10.6640625" style="29" customWidth="1"/>
+    <col min="281" max="281" width="1.6640625" style="29" customWidth="1"/>
+    <col min="282" max="512" width="9" style="29"/>
+    <col min="513" max="513" width="1.6640625" style="29" customWidth="1"/>
+    <col min="514" max="514" width="8.6640625" style="29" customWidth="1"/>
+    <col min="515" max="515" width="2.6640625" style="29" customWidth="1"/>
+    <col min="516" max="516" width="10.6640625" style="29" customWidth="1"/>
+    <col min="517" max="518" width="2.6640625" style="29" customWidth="1"/>
+    <col min="519" max="520" width="4.6640625" style="29" customWidth="1"/>
+    <col min="521" max="522" width="2.6640625" style="29" customWidth="1"/>
+    <col min="523" max="524" width="4.6640625" style="29" customWidth="1"/>
+    <col min="525" max="527" width="2.6640625" style="29" customWidth="1"/>
+    <col min="528" max="529" width="4.6640625" style="29" customWidth="1"/>
+    <col min="530" max="531" width="2.6640625" style="29" customWidth="1"/>
+    <col min="532" max="533" width="4.6640625" style="29" customWidth="1"/>
+    <col min="534" max="535" width="2.6640625" style="29" customWidth="1"/>
+    <col min="536" max="536" width="10.6640625" style="29" customWidth="1"/>
+    <col min="537" max="537" width="1.6640625" style="29" customWidth="1"/>
+    <col min="538" max="768" width="9" style="29"/>
+    <col min="769" max="769" width="1.6640625" style="29" customWidth="1"/>
+    <col min="770" max="770" width="8.6640625" style="29" customWidth="1"/>
+    <col min="771" max="771" width="2.6640625" style="29" customWidth="1"/>
+    <col min="772" max="772" width="10.6640625" style="29" customWidth="1"/>
+    <col min="773" max="774" width="2.6640625" style="29" customWidth="1"/>
+    <col min="775" max="776" width="4.6640625" style="29" customWidth="1"/>
+    <col min="777" max="778" width="2.6640625" style="29" customWidth="1"/>
+    <col min="779" max="780" width="4.6640625" style="29" customWidth="1"/>
+    <col min="781" max="783" width="2.6640625" style="29" customWidth="1"/>
+    <col min="784" max="785" width="4.6640625" style="29" customWidth="1"/>
+    <col min="786" max="787" width="2.6640625" style="29" customWidth="1"/>
+    <col min="788" max="789" width="4.6640625" style="29" customWidth="1"/>
+    <col min="790" max="791" width="2.6640625" style="29" customWidth="1"/>
+    <col min="792" max="792" width="10.6640625" style="29" customWidth="1"/>
+    <col min="793" max="793" width="1.6640625" style="29" customWidth="1"/>
+    <col min="794" max="1024" width="9" style="29"/>
+    <col min="1025" max="1025" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1028" max="1028" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1029" max="1030" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1031" max="1032" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1033" max="1034" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1035" max="1036" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1037" max="1039" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1040" max="1041" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1042" max="1043" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1044" max="1045" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1046" max="1047" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1048" max="1048" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1049" max="1049" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1050" max="1280" width="9" style="29"/>
+    <col min="1281" max="1281" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1284" max="1284" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1285" max="1286" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1287" max="1288" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1289" max="1290" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1291" max="1292" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1293" max="1295" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1296" max="1297" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1298" max="1299" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1300" max="1301" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1302" max="1303" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1304" max="1304" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1305" max="1305" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1306" max="1536" width="9" style="29"/>
+    <col min="1537" max="1537" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1540" max="1540" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1541" max="1542" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1543" max="1544" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1545" max="1546" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1547" max="1548" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1549" max="1551" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1552" max="1553" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1554" max="1555" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1556" max="1557" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1558" max="1559" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1560" max="1560" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1561" max="1561" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1562" max="1792" width="9" style="29"/>
+    <col min="1793" max="1793" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="8.6640625" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1796" max="1796" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1797" max="1798" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1799" max="1800" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1801" max="1802" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1803" max="1804" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1805" max="1807" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1808" max="1809" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1810" max="1811" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1812" max="1813" width="4.6640625" style="29" customWidth="1"/>
+    <col min="1814" max="1815" width="2.6640625" style="29" customWidth="1"/>
+    <col min="1816" max="1816" width="10.6640625" style="29" customWidth="1"/>
+    <col min="1817" max="1817" width="1.6640625" style="29" customWidth="1"/>
+    <col min="1818" max="2048" width="9" style="29"/>
+    <col min="2049" max="2049" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="8.6640625" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2052" max="2052" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2053" max="2054" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2055" max="2056" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2057" max="2058" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2059" max="2060" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2061" max="2063" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2064" max="2065" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2066" max="2067" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2068" max="2069" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2070" max="2071" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2072" max="2072" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2073" max="2073" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2074" max="2304" width="9" style="29"/>
+    <col min="2305" max="2305" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="8.6640625" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2308" max="2308" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2309" max="2310" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2311" max="2312" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2313" max="2314" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2315" max="2316" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2317" max="2319" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2320" max="2321" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2322" max="2323" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2324" max="2325" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2326" max="2327" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2328" max="2328" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2329" max="2329" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2330" max="2560" width="9" style="29"/>
+    <col min="2561" max="2561" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="8.6640625" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2564" max="2564" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2565" max="2566" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2567" max="2568" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2569" max="2570" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2571" max="2572" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2573" max="2575" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2576" max="2577" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2578" max="2579" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2580" max="2581" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2582" max="2583" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2584" max="2584" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2585" max="2585" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2586" max="2816" width="9" style="29"/>
+    <col min="2817" max="2817" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="8.6640625" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2820" max="2820" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2821" max="2822" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2823" max="2824" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2825" max="2826" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2827" max="2828" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2829" max="2831" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2832" max="2833" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2834" max="2835" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2836" max="2837" width="4.6640625" style="29" customWidth="1"/>
+    <col min="2838" max="2839" width="2.6640625" style="29" customWidth="1"/>
+    <col min="2840" max="2840" width="10.6640625" style="29" customWidth="1"/>
+    <col min="2841" max="2841" width="1.6640625" style="29" customWidth="1"/>
+    <col min="2842" max="3072" width="9" style="29"/>
+    <col min="3073" max="3073" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="8.6640625" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3076" max="3076" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3077" max="3078" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3079" max="3080" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3081" max="3082" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3083" max="3084" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3085" max="3087" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3088" max="3089" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3090" max="3091" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3092" max="3093" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3094" max="3095" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3096" max="3096" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3097" max="3097" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3098" max="3328" width="9" style="29"/>
+    <col min="3329" max="3329" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="8.6640625" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3332" max="3332" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3333" max="3334" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3335" max="3336" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3337" max="3338" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3339" max="3340" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3341" max="3343" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3344" max="3345" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3346" max="3347" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3348" max="3349" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3350" max="3351" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3352" max="3352" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3353" max="3353" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3354" max="3584" width="9" style="29"/>
+    <col min="3585" max="3585" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="8.6640625" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3588" max="3588" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3589" max="3590" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3591" max="3592" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3593" max="3594" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3595" max="3596" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3597" max="3599" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3600" max="3601" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3602" max="3603" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3604" max="3605" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3606" max="3607" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3608" max="3608" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3609" max="3609" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3610" max="3840" width="9" style="29"/>
+    <col min="3841" max="3841" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="8.6640625" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3844" max="3844" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3845" max="3846" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3847" max="3848" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3849" max="3850" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3851" max="3852" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3853" max="3855" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3856" max="3857" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3858" max="3859" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3860" max="3861" width="4.6640625" style="29" customWidth="1"/>
+    <col min="3862" max="3863" width="2.6640625" style="29" customWidth="1"/>
+    <col min="3864" max="3864" width="10.6640625" style="29" customWidth="1"/>
+    <col min="3865" max="3865" width="1.6640625" style="29" customWidth="1"/>
+    <col min="3866" max="4096" width="9" style="29"/>
+    <col min="4097" max="4097" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="8.6640625" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4100" max="4100" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4101" max="4102" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4103" max="4104" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4105" max="4106" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4107" max="4108" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4109" max="4111" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4112" max="4113" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4114" max="4115" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4116" max="4117" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4118" max="4119" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4120" max="4120" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4121" max="4121" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4122" max="4352" width="9" style="29"/>
+    <col min="4353" max="4353" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="8.6640625" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4356" max="4356" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4357" max="4358" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4359" max="4360" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4361" max="4362" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4363" max="4364" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4365" max="4367" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4368" max="4369" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4370" max="4371" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4372" max="4373" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4374" max="4375" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4376" max="4376" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4377" max="4377" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4378" max="4608" width="9" style="29"/>
+    <col min="4609" max="4609" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="8.6640625" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4612" max="4612" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4613" max="4614" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4615" max="4616" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4617" max="4618" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4619" max="4620" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4621" max="4623" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4624" max="4625" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4626" max="4627" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4628" max="4629" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4630" max="4631" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4632" max="4632" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4633" max="4633" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4634" max="4864" width="9" style="29"/>
+    <col min="4865" max="4865" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="8.6640625" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4868" max="4868" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4869" max="4870" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4871" max="4872" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4873" max="4874" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4875" max="4876" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4877" max="4879" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4880" max="4881" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4882" max="4883" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4884" max="4885" width="4.6640625" style="29" customWidth="1"/>
+    <col min="4886" max="4887" width="2.6640625" style="29" customWidth="1"/>
+    <col min="4888" max="4888" width="10.6640625" style="29" customWidth="1"/>
+    <col min="4889" max="4889" width="1.6640625" style="29" customWidth="1"/>
+    <col min="4890" max="5120" width="9" style="29"/>
+    <col min="5121" max="5121" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="8.6640625" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5124" max="5124" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5125" max="5126" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5127" max="5128" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5129" max="5130" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5131" max="5132" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5133" max="5135" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5136" max="5137" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5138" max="5139" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5140" max="5141" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5142" max="5143" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5144" max="5144" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5145" max="5145" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5146" max="5376" width="9" style="29"/>
+    <col min="5377" max="5377" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="8.6640625" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5380" max="5380" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5381" max="5382" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5383" max="5384" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5385" max="5386" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5387" max="5388" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5389" max="5391" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5392" max="5393" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5394" max="5395" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5396" max="5397" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5398" max="5399" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5400" max="5400" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5401" max="5401" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5402" max="5632" width="9" style="29"/>
+    <col min="5633" max="5633" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="8.6640625" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5636" max="5636" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5637" max="5638" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5639" max="5640" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5641" max="5642" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5643" max="5644" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5645" max="5647" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5648" max="5649" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5650" max="5651" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5652" max="5653" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5654" max="5655" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5656" max="5656" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5657" max="5657" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5658" max="5888" width="9" style="29"/>
+    <col min="5889" max="5889" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="8.6640625" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5892" max="5892" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5893" max="5894" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5895" max="5896" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5897" max="5898" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5899" max="5900" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5901" max="5903" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5904" max="5905" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5906" max="5907" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5908" max="5909" width="4.6640625" style="29" customWidth="1"/>
+    <col min="5910" max="5911" width="2.6640625" style="29" customWidth="1"/>
+    <col min="5912" max="5912" width="10.6640625" style="29" customWidth="1"/>
+    <col min="5913" max="5913" width="1.6640625" style="29" customWidth="1"/>
+    <col min="5914" max="6144" width="9" style="29"/>
+    <col min="6145" max="6145" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="8.6640625" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6148" max="6148" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6149" max="6150" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6151" max="6152" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6153" max="6154" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6155" max="6156" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6157" max="6159" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6160" max="6161" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6162" max="6163" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6164" max="6165" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6166" max="6167" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6168" max="6168" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6169" max="6169" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6170" max="6400" width="9" style="29"/>
+    <col min="6401" max="6401" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="8.6640625" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6404" max="6404" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6405" max="6406" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6407" max="6408" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6409" max="6410" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6411" max="6412" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6413" max="6415" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6416" max="6417" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6418" max="6419" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6420" max="6421" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6422" max="6423" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6424" max="6424" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6425" max="6425" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6426" max="6656" width="9" style="29"/>
+    <col min="6657" max="6657" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="8.6640625" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6660" max="6660" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6661" max="6662" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6663" max="6664" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6665" max="6666" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6667" max="6668" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6669" max="6671" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6672" max="6673" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6674" max="6675" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6676" max="6677" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6678" max="6679" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6680" max="6680" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6681" max="6681" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6682" max="6912" width="9" style="29"/>
+    <col min="6913" max="6913" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="8.6640625" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6916" max="6916" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6917" max="6918" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6919" max="6920" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6921" max="6922" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6923" max="6924" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6925" max="6927" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6928" max="6929" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6930" max="6931" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6932" max="6933" width="4.6640625" style="29" customWidth="1"/>
+    <col min="6934" max="6935" width="2.6640625" style="29" customWidth="1"/>
+    <col min="6936" max="6936" width="10.6640625" style="29" customWidth="1"/>
+    <col min="6937" max="6937" width="1.6640625" style="29" customWidth="1"/>
+    <col min="6938" max="7168" width="9" style="29"/>
+    <col min="7169" max="7169" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="8.6640625" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7172" max="7172" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7173" max="7174" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7175" max="7176" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7177" max="7178" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7179" max="7180" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7181" max="7183" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7184" max="7185" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7186" max="7187" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7188" max="7189" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7190" max="7191" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7192" max="7192" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7193" max="7193" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7194" max="7424" width="9" style="29"/>
+    <col min="7425" max="7425" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="8.6640625" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7428" max="7428" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7429" max="7430" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7431" max="7432" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7433" max="7434" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7435" max="7436" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7437" max="7439" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7440" max="7441" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7442" max="7443" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7444" max="7445" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7446" max="7447" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7448" max="7448" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7449" max="7449" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7450" max="7680" width="9" style="29"/>
+    <col min="7681" max="7681" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="8.6640625" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7684" max="7684" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7685" max="7686" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7687" max="7688" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7689" max="7690" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7691" max="7692" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7693" max="7695" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7696" max="7697" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7698" max="7699" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7700" max="7701" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7702" max="7703" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7704" max="7704" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7705" max="7705" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7706" max="7936" width="9" style="29"/>
+    <col min="7937" max="7937" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="8.6640625" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7940" max="7940" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7941" max="7942" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7943" max="7944" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7945" max="7946" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7947" max="7948" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7949" max="7951" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7952" max="7953" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7954" max="7955" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7956" max="7957" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7958" max="7959" width="2.6640625" style="29" customWidth="1"/>
+    <col min="7960" max="7960" width="10.6640625" style="29" customWidth="1"/>
+    <col min="7961" max="7961" width="1.6640625" style="29" customWidth="1"/>
+    <col min="7962" max="8192" width="9" style="29"/>
+    <col min="8193" max="8193" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="8.6640625" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8196" max="8196" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8197" max="8198" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8199" max="8200" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8201" max="8202" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8203" max="8204" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8205" max="8207" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8208" max="8209" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8210" max="8211" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8212" max="8213" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8214" max="8215" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8216" max="8216" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8217" max="8217" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8218" max="8448" width="9" style="29"/>
+    <col min="8449" max="8449" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="8.6640625" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8452" max="8452" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8453" max="8454" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8455" max="8456" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8457" max="8458" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8459" max="8460" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8461" max="8463" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8464" max="8465" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8466" max="8467" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8468" max="8469" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8470" max="8471" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8472" max="8472" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8473" max="8473" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8474" max="8704" width="9" style="29"/>
+    <col min="8705" max="8705" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="8.6640625" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8708" max="8708" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8709" max="8710" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8711" max="8712" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8713" max="8714" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8715" max="8716" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8717" max="8719" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8720" max="8721" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8722" max="8723" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8724" max="8725" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8726" max="8727" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8728" max="8728" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8729" max="8729" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8730" max="8960" width="9" style="29"/>
+    <col min="8961" max="8961" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="8.6640625" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8964" max="8964" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8965" max="8966" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8967" max="8968" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8969" max="8970" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8971" max="8972" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8973" max="8975" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8976" max="8977" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8978" max="8979" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8980" max="8981" width="4.6640625" style="29" customWidth="1"/>
+    <col min="8982" max="8983" width="2.6640625" style="29" customWidth="1"/>
+    <col min="8984" max="8984" width="10.6640625" style="29" customWidth="1"/>
+    <col min="8985" max="8985" width="1.6640625" style="29" customWidth="1"/>
+    <col min="8986" max="9216" width="9" style="29"/>
+    <col min="9217" max="9217" width="1.6640625" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="8.6640625" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9220" max="9220" width="10.6640625" style="29" customWidth="1"/>
+    <col min="9221" max="9222" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9223" max="9224" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9225" max="9226" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9227" max="9228" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9229" max="9231" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9232" max="9233" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9234" max="9235" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9236" max="9237" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9238" max="9239" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9240" max="9240" width="10.6640625" style="29" customWidth="1"/>
+    <col min="9241" max="9241" width="1.6640625" style="29" customWidth="1"/>
+    <col min="9242" max="9472" width="9" style="29"/>
+    <col min="9473" max="9473" width="1.6640625" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="8.6640625" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9476" max="9476" width="10.6640625" style="29" customWidth="1"/>
+    <col min="9477" max="9478" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9479" max="9480" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9481" max="9482" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9483" max="9484" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9485" max="9487" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9488" max="9489" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9490" max="9491" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9492" max="9493" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9494" max="9495" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9496" max="9496" width="10.6640625" style="29" customWidth="1"/>
+    <col min="9497" max="9497" width="1.6640625" style="29" customWidth="1"/>
+    <col min="9498" max="9728" width="9" style="29"/>
+    <col min="9729" max="9729" width="1.6640625" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="8.6640625" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9732" max="9732" width="10.6640625" style="29" customWidth="1"/>
+    <col min="9733" max="9734" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9735" max="9736" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9737" max="9738" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9739" max="9740" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9741" max="9743" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9744" max="9745" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9746" max="9747" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9748" max="9749" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9750" max="9751" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9752" max="9752" width="10.6640625" style="29" customWidth="1"/>
+    <col min="9753" max="9753" width="1.6640625" style="29" customWidth="1"/>
+    <col min="9754" max="9984" width="9" style="29"/>
+    <col min="9985" max="9985" width="1.6640625" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="8.6640625" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9988" max="9988" width="10.6640625" style="29" customWidth="1"/>
+    <col min="9989" max="9990" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9991" max="9992" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9993" max="9994" width="2.6640625" style="29" customWidth="1"/>
+    <col min="9995" max="9996" width="4.6640625" style="29" customWidth="1"/>
+    <col min="9997" max="9999" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10000" max="10001" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10002" max="10003" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10004" max="10005" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10006" max="10007" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10008" max="10008" width="10.6640625" style="29" customWidth="1"/>
+    <col min="10009" max="10009" width="1.6640625" style="29" customWidth="1"/>
+    <col min="10010" max="10240" width="9" style="29"/>
+    <col min="10241" max="10241" width="1.6640625" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="8.6640625" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10244" max="10244" width="10.6640625" style="29" customWidth="1"/>
+    <col min="10245" max="10246" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10247" max="10248" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10249" max="10250" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10251" max="10252" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10253" max="10255" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10256" max="10257" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10258" max="10259" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10260" max="10261" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10262" max="10263" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10264" max="10264" width="10.6640625" style="29" customWidth="1"/>
+    <col min="10265" max="10265" width="1.6640625" style="29" customWidth="1"/>
+    <col min="10266" max="10496" width="9" style="29"/>
+    <col min="10497" max="10497" width="1.6640625" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="8.6640625" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10500" max="10500" width="10.6640625" style="29" customWidth="1"/>
+    <col min="10501" max="10502" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10503" max="10504" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10505" max="10506" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10507" max="10508" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10509" max="10511" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10512" max="10513" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10514" max="10515" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10516" max="10517" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10518" max="10519" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10520" max="10520" width="10.6640625" style="29" customWidth="1"/>
+    <col min="10521" max="10521" width="1.6640625" style="29" customWidth="1"/>
+    <col min="10522" max="10752" width="9" style="29"/>
+    <col min="10753" max="10753" width="1.6640625" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="8.6640625" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10756" max="10756" width="10.6640625" style="29" customWidth="1"/>
+    <col min="10757" max="10758" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10759" max="10760" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10761" max="10762" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10763" max="10764" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10765" max="10767" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10768" max="10769" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10770" max="10771" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10772" max="10773" width="4.6640625" style="29" customWidth="1"/>
+    <col min="10774" max="10775" width="2.6640625" style="29" customWidth="1"/>
+    <col min="10776" max="10776" width="10.6640625" style="29" customWidth="1"/>
+    <col min="10777" max="10777" width="1.6640625" style="29" customWidth="1"/>
+    <col min="10778" max="11008" width="9" style="29"/>
+    <col min="11009" max="11009" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="8.6640625" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11012" max="11012" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11013" max="11014" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11015" max="11016" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11017" max="11018" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11019" max="11020" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11021" max="11023" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11024" max="11025" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11026" max="11027" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11028" max="11029" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11030" max="11031" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11032" max="11032" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11033" max="11033" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11034" max="11264" width="9" style="29"/>
+    <col min="11265" max="11265" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="8.6640625" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11268" max="11268" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11269" max="11270" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11271" max="11272" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11273" max="11274" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11275" max="11276" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11277" max="11279" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11280" max="11281" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11282" max="11283" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11284" max="11285" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11286" max="11287" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11288" max="11288" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11289" max="11289" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11290" max="11520" width="9" style="29"/>
+    <col min="11521" max="11521" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="8.6640625" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11524" max="11524" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11525" max="11526" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11527" max="11528" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11529" max="11530" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11531" max="11532" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11533" max="11535" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11536" max="11537" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11538" max="11539" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11540" max="11541" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11542" max="11543" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11544" max="11544" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11545" max="11545" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11546" max="11776" width="9" style="29"/>
+    <col min="11777" max="11777" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="8.6640625" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11780" max="11780" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11781" max="11782" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11783" max="11784" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11785" max="11786" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11787" max="11788" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11789" max="11791" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11792" max="11793" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11794" max="11795" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11796" max="11797" width="4.6640625" style="29" customWidth="1"/>
+    <col min="11798" max="11799" width="2.6640625" style="29" customWidth="1"/>
+    <col min="11800" max="11800" width="10.6640625" style="29" customWidth="1"/>
+    <col min="11801" max="11801" width="1.6640625" style="29" customWidth="1"/>
+    <col min="11802" max="12032" width="9" style="29"/>
+    <col min="12033" max="12033" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="8.6640625" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12036" max="12036" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12037" max="12038" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12039" max="12040" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12041" max="12042" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12043" max="12044" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12045" max="12047" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12048" max="12049" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12050" max="12051" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12052" max="12053" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12054" max="12055" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12056" max="12056" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12057" max="12057" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12058" max="12288" width="9" style="29"/>
+    <col min="12289" max="12289" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="8.6640625" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12292" max="12292" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12293" max="12294" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12295" max="12296" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12297" max="12298" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12299" max="12300" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12301" max="12303" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12304" max="12305" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12306" max="12307" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12308" max="12309" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12310" max="12311" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12312" max="12312" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12313" max="12313" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12314" max="12544" width="9" style="29"/>
+    <col min="12545" max="12545" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="8.6640625" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12548" max="12548" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12549" max="12550" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12551" max="12552" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12553" max="12554" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12555" max="12556" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12557" max="12559" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12560" max="12561" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12562" max="12563" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12564" max="12565" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12566" max="12567" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12568" max="12568" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12569" max="12569" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12570" max="12800" width="9" style="29"/>
+    <col min="12801" max="12801" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="8.6640625" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12804" max="12804" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12805" max="12806" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12807" max="12808" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12809" max="12810" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12811" max="12812" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12813" max="12815" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12816" max="12817" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12818" max="12819" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12820" max="12821" width="4.6640625" style="29" customWidth="1"/>
+    <col min="12822" max="12823" width="2.6640625" style="29" customWidth="1"/>
+    <col min="12824" max="12824" width="10.6640625" style="29" customWidth="1"/>
+    <col min="12825" max="12825" width="1.6640625" style="29" customWidth="1"/>
+    <col min="12826" max="13056" width="9" style="29"/>
+    <col min="13057" max="13057" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="8.6640625" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13060" max="13060" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13061" max="13062" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13063" max="13064" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13065" max="13066" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13067" max="13068" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13069" max="13071" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13072" max="13073" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13074" max="13075" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13076" max="13077" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13078" max="13079" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13080" max="13080" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13081" max="13081" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13082" max="13312" width="9" style="29"/>
+    <col min="13313" max="13313" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="8.6640625" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13316" max="13316" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13317" max="13318" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13319" max="13320" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13321" max="13322" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13323" max="13324" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13325" max="13327" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13328" max="13329" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13330" max="13331" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13332" max="13333" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13334" max="13335" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13336" max="13336" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13337" max="13337" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13338" max="13568" width="9" style="29"/>
+    <col min="13569" max="13569" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="8.6640625" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13572" max="13572" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13573" max="13574" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13575" max="13576" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13577" max="13578" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13579" max="13580" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13581" max="13583" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13584" max="13585" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13586" max="13587" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13588" max="13589" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13590" max="13591" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13592" max="13592" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13593" max="13593" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13594" max="13824" width="9" style="29"/>
+    <col min="13825" max="13825" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="8.6640625" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13828" max="13828" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13829" max="13830" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13831" max="13832" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13833" max="13834" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13835" max="13836" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13837" max="13839" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13840" max="13841" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13842" max="13843" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13844" max="13845" width="4.6640625" style="29" customWidth="1"/>
+    <col min="13846" max="13847" width="2.6640625" style="29" customWidth="1"/>
+    <col min="13848" max="13848" width="10.6640625" style="29" customWidth="1"/>
+    <col min="13849" max="13849" width="1.6640625" style="29" customWidth="1"/>
+    <col min="13850" max="14080" width="9" style="29"/>
+    <col min="14081" max="14081" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="8.6640625" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14084" max="14084" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14085" max="14086" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14087" max="14088" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14089" max="14090" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14091" max="14092" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14093" max="14095" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14096" max="14097" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14098" max="14099" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14100" max="14101" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14102" max="14103" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14104" max="14104" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14105" max="14105" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14106" max="14336" width="9" style="29"/>
+    <col min="14337" max="14337" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="8.6640625" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14340" max="14340" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14341" max="14342" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14343" max="14344" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14345" max="14346" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14347" max="14348" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14349" max="14351" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14352" max="14353" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14354" max="14355" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14356" max="14357" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14358" max="14359" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14360" max="14360" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14361" max="14361" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14362" max="14592" width="9" style="29"/>
+    <col min="14593" max="14593" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="8.6640625" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14596" max="14596" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14597" max="14598" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14599" max="14600" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14601" max="14602" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14603" max="14604" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14605" max="14607" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14608" max="14609" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14610" max="14611" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14612" max="14613" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14614" max="14615" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14616" max="14616" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14617" max="14617" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14618" max="14848" width="9" style="29"/>
+    <col min="14849" max="14849" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="8.6640625" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14852" max="14852" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14853" max="14854" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14855" max="14856" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14857" max="14858" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14859" max="14860" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14861" max="14863" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14864" max="14865" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14866" max="14867" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14868" max="14869" width="4.6640625" style="29" customWidth="1"/>
+    <col min="14870" max="14871" width="2.6640625" style="29" customWidth="1"/>
+    <col min="14872" max="14872" width="10.6640625" style="29" customWidth="1"/>
+    <col min="14873" max="14873" width="1.6640625" style="29" customWidth="1"/>
+    <col min="14874" max="15104" width="9" style="29"/>
+    <col min="15105" max="15105" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="8.6640625" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15108" max="15108" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15109" max="15110" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15111" max="15112" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15113" max="15114" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15115" max="15116" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15117" max="15119" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15120" max="15121" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15122" max="15123" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15124" max="15125" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15126" max="15127" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15128" max="15128" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15129" max="15129" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15130" max="15360" width="9" style="29"/>
+    <col min="15361" max="15361" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="8.6640625" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15364" max="15364" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15365" max="15366" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15367" max="15368" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15369" max="15370" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15371" max="15372" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15373" max="15375" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15376" max="15377" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15378" max="15379" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15380" max="15381" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15382" max="15383" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15384" max="15384" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15385" max="15385" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15386" max="15616" width="9" style="29"/>
+    <col min="15617" max="15617" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="8.6640625" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15620" max="15620" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15621" max="15622" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15623" max="15624" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15625" max="15626" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15627" max="15628" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15629" max="15631" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15632" max="15633" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15634" max="15635" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15636" max="15637" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15638" max="15639" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15640" max="15640" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15641" max="15641" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15642" max="15872" width="9" style="29"/>
+    <col min="15873" max="15873" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="8.6640625" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15876" max="15876" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15877" max="15878" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15879" max="15880" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15881" max="15882" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15883" max="15884" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15885" max="15887" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15888" max="15889" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15890" max="15891" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15892" max="15893" width="4.6640625" style="29" customWidth="1"/>
+    <col min="15894" max="15895" width="2.6640625" style="29" customWidth="1"/>
+    <col min="15896" max="15896" width="10.6640625" style="29" customWidth="1"/>
+    <col min="15897" max="15897" width="1.6640625" style="29" customWidth="1"/>
+    <col min="15898" max="16128" width="9" style="29"/>
+    <col min="16129" max="16129" width="1.6640625" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="8.6640625" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="2.6640625" style="29" customWidth="1"/>
+    <col min="16132" max="16132" width="10.6640625" style="29" customWidth="1"/>
+    <col min="16133" max="16134" width="2.6640625" style="29" customWidth="1"/>
+    <col min="16135" max="16136" width="4.6640625" style="29" customWidth="1"/>
+    <col min="16137" max="16138" width="2.6640625" style="29" customWidth="1"/>
+    <col min="16139" max="16140" width="4.6640625" style="29" customWidth="1"/>
+    <col min="16141" max="16143" width="2.6640625" style="29" customWidth="1"/>
+    <col min="16144" max="16145" width="4.6640625" style="29" customWidth="1"/>
+    <col min="16146" max="16147" width="2.6640625" style="29" customWidth="1"/>
+    <col min="16148" max="16149" width="4.6640625" style="29" customWidth="1"/>
+    <col min="16150" max="16151" width="2.6640625" style="29" customWidth="1"/>
+    <col min="16152" max="16152" width="10.6640625" style="29" customWidth="1"/>
+    <col min="16153" max="16153" width="1.6640625" style="29" customWidth="1"/>
+    <col min="16154" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="12" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="12" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="G4" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
-      <c r="P4" s="37" t="s">
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="31"/>
+      <c r="P4" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="T4" s="37" t="s">
+      <c r="Q4" s="76"/>
+      <c r="T4" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="X4" s="39" t="s">
+      <c r="U4" s="76"/>
+      <c r="X4" s="32" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="12" customHeight="1">
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:24" ht="12" customHeight="1">
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="2:24" ht="12" customHeight="1">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="K7" s="43" t="s">
+      <c r="H7" s="54"/>
+      <c r="K7" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="38"/>
-      <c r="P7" s="44" t="s">
+      <c r="L7" s="54"/>
+      <c r="M7" s="31"/>
+      <c r="P7" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="89"/>
+      <c r="T7" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="U7" s="53"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="12" customHeight="1">
+      <c r="B8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="31"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="73"/>
+    </row>
+    <row r="9" spans="2:24" ht="12" customHeight="1">
+      <c r="B9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="31"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="91"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="74"/>
+    </row>
+    <row r="10" spans="2:24" ht="12" customHeight="1">
+      <c r="B10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="G10" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="31"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="2:24" ht="12" customHeight="1">
+      <c r="B11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="31"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="91"/>
+      <c r="T11" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="U11" s="54"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="12" customHeight="1">
+      <c r="B12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="31"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="73"/>
+    </row>
+    <row r="13" spans="2:24" ht="12" customHeight="1">
+      <c r="B13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="K13" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="53"/>
+      <c r="M13" s="31"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="74"/>
+    </row>
+    <row r="14" spans="2:24" ht="12" customHeight="1">
+      <c r="B14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="31"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+    </row>
+    <row r="15" spans="2:24" ht="12" customHeight="1">
+      <c r="B15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="31"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="12" customHeight="1">
+      <c r="B16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="G16" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="53"/>
+    </row>
+    <row r="17" spans="2:24" ht="12" customHeight="1">
+      <c r="B17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="31"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="37"/>
+    </row>
+    <row r="18" spans="2:24" ht="12" customHeight="1">
+      <c r="B18" s="52"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="12" customHeight="1">
+      <c r="B19" s="52"/>
+      <c r="D19" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="K19" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="31"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="75"/>
+    </row>
+    <row r="20" spans="2:24" ht="12" customHeight="1">
+      <c r="B20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="31"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+    </row>
+    <row r="21" spans="2:24" ht="12" customHeight="1">
+      <c r="B21" s="52"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="31"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="U21" s="53"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="72" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="12" customHeight="1">
+      <c r="B22" s="52"/>
+      <c r="D22" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="31"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="73"/>
+    </row>
+    <row r="23" spans="2:24" ht="12" customHeight="1">
+      <c r="B23" s="52"/>
+      <c r="D23" s="71"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="31"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="74"/>
+    </row>
+    <row r="24" spans="2:24" ht="12" customHeight="1">
+      <c r="B24" s="52"/>
+      <c r="D24" s="71"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="31"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+    </row>
+    <row r="25" spans="2:24" ht="12" customHeight="1">
+      <c r="B25" s="52"/>
+      <c r="D25" s="71"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="31"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="U25" s="85"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="54" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="12" customHeight="1">
+      <c r="B26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="54"/>
+    </row>
+    <row r="27" spans="2:24" ht="12" customHeight="1">
+      <c r="B27" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="31"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="31"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+    </row>
+    <row r="28" spans="2:24" ht="12" customHeight="1">
+      <c r="B28" s="51"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="P28" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+    </row>
+    <row r="29" spans="2:24" ht="12" customHeight="1">
+      <c r="B29" s="51"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+    </row>
+    <row r="30" spans="2:24" ht="12" customHeight="1">
+      <c r="B30" s="51"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="2:24" ht="12" customHeight="1">
+      <c r="B31" s="51"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="31"/>
+      <c r="P31" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="12" customHeight="1">
+      <c r="B32" s="51"/>
+      <c r="D32" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="31"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="68"/>
+    </row>
+    <row r="33" spans="2:24" ht="12" customHeight="1">
+      <c r="B33" s="51"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="69"/>
+    </row>
+    <row r="34" spans="2:24" ht="12" customHeight="1">
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+    </row>
+    <row r="35" spans="2:24" ht="12" customHeight="1">
+      <c r="B35" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+    </row>
+    <row r="36" spans="2:24" ht="12" customHeight="1">
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+    </row>
+    <row r="37" spans="2:24" ht="12" customHeight="1">
+      <c r="B37" s="36"/>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="2:24" ht="12" customHeight="1">
+      <c r="B38" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" ht="12" customHeight="1">
+      <c r="B40" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="G40" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="31"/>
+      <c r="P40" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="76"/>
+      <c r="T40" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="U40" s="76"/>
+      <c r="X40" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" ht="12" customHeight="1">
+      <c r="G41" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+    </row>
+    <row r="43" spans="2:24" ht="12" customHeight="1">
+      <c r="B43" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="H43" s="54"/>
+      <c r="K43" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" s="54"/>
+      <c r="M43" s="31"/>
+      <c r="P43" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="U43" s="53"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="12" customHeight="1">
+      <c r="B44" s="79"/>
+      <c r="D44" s="82"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="31"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="73"/>
+    </row>
+    <row r="45" spans="2:24" ht="12" customHeight="1">
+      <c r="B45" s="79"/>
+      <c r="D45" s="82"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="31"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="74"/>
+    </row>
+    <row r="46" spans="2:24" ht="12" customHeight="1">
+      <c r="B46" s="79"/>
+      <c r="D46" s="82"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="31"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+    </row>
+    <row r="47" spans="2:24" ht="12" customHeight="1">
+      <c r="B47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="G47" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="H47" s="54"/>
+      <c r="K47" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" s="56"/>
+      <c r="M47" s="31"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" ht="12" customHeight="1">
+      <c r="B48" s="79"/>
+      <c r="D48" s="82"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="31"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="75"/>
+    </row>
+    <row r="49" spans="2:24" ht="12" customHeight="1">
+      <c r="B49" s="79"/>
+      <c r="D49" s="82"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="31"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+    </row>
+    <row r="50" spans="2:24" ht="12" customHeight="1">
+      <c r="B50" s="79"/>
+      <c r="D50" s="82"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="31"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="U50" s="53"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="12" customHeight="1">
+      <c r="B51" s="79"/>
+      <c r="D51" s="82"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="31"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="75"/>
+    </row>
+    <row r="52" spans="2:24" ht="12" customHeight="1">
+      <c r="B52" s="79"/>
+      <c r="D52" s="82"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="K52" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="L52" s="54"/>
+      <c r="M52" s="31"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+    </row>
+    <row r="53" spans="2:24" ht="12" customHeight="1">
+      <c r="B53" s="79"/>
+      <c r="D53" s="82"/>
+      <c r="G53" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="H53" s="71"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="31"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="T53" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="U53" s="54"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="72" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="12" customHeight="1">
+      <c r="B54" s="79"/>
+      <c r="D54" s="83"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="31"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="73"/>
+    </row>
+    <row r="55" spans="2:24" ht="12" customHeight="1">
+      <c r="B55" s="79"/>
+      <c r="D55" s="31"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="31"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="74"/>
+    </row>
+    <row r="56" spans="2:24" ht="12" customHeight="1">
+      <c r="B56" s="79"/>
+      <c r="D56" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="H56" s="54"/>
+      <c r="K56" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="L56" s="70"/>
+      <c r="M56" s="31"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="40"/>
+    </row>
+    <row r="57" spans="2:24" ht="12" customHeight="1">
+      <c r="B57" s="79"/>
+      <c r="D57" s="53"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="31"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="12" customHeight="1">
+      <c r="B58" s="79"/>
+      <c r="D58" s="31"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="K58" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="L58" s="54"/>
+      <c r="M58" s="31"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="53"/>
+    </row>
+    <row r="59" spans="2:24" ht="12" customHeight="1">
+      <c r="B59" s="79"/>
+      <c r="D59" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="31"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+    </row>
+    <row r="60" spans="2:24" ht="12" customHeight="1">
+      <c r="B60" s="80"/>
+      <c r="D60" s="71"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="31"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="U60" s="53"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" ht="12" customHeight="1">
+      <c r="B61" s="31"/>
+      <c r="D61" s="39"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="31"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="54"/>
+    </row>
+    <row r="62" spans="2:24" ht="12" customHeight="1">
+      <c r="B62" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="31"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+    </row>
+    <row r="63" spans="2:24" ht="12" customHeight="1">
+      <c r="B63" s="51"/>
+      <c r="D63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="K63" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="L63" s="56"/>
+      <c r="M63" s="31"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="12" customHeight="1">
+      <c r="B64" s="51"/>
+      <c r="D64" s="35"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="58"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="54"/>
+    </row>
+    <row r="65" spans="2:24" ht="12" customHeight="1">
+      <c r="B65" s="51"/>
+      <c r="D65" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="58"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="54"/>
+    </row>
+    <row r="66" spans="2:24" ht="12" customHeight="1">
+      <c r="B66" s="51"/>
+      <c r="D66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="31"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+    </row>
+    <row r="67" spans="2:24" ht="12" customHeight="1">
+      <c r="B67" s="51"/>
+      <c r="D67" s="54"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="31"/>
+      <c r="P67" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" ht="12" customHeight="1">
+      <c r="B68" s="51"/>
+      <c r="D68" s="54"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="K68" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="L68" s="70"/>
+      <c r="M68" s="31"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="68"/>
+    </row>
+    <row r="69" spans="2:24" ht="12" customHeight="1">
+      <c r="B69" s="51"/>
+      <c r="D69" s="54"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="31"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="69"/>
+    </row>
+    <row r="70" spans="2:24" ht="12" customHeight="1">
+      <c r="B70" s="36"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+    </row>
+    <row r="71" spans="2:24" ht="12" customHeight="1">
+      <c r="B71" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="H71" s="53"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" ht="12" customHeight="1">
+      <c r="B72" s="52"/>
+      <c r="D72" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+    </row>
+    <row r="73" spans="2:24" ht="12" customHeight="1">
+      <c r="B73" s="52"/>
+      <c r="D73" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="P73" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+    </row>
+    <row r="74" spans="2:24" ht="12" customHeight="1">
+      <c r="B74" s="36"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+    </row>
+    <row r="76" spans="2:24" ht="12" customHeight="1">
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+    </row>
+    <row r="78" spans="2:24" ht="12" customHeight="1">
+      <c r="B78" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" ht="12" customHeight="1">
+      <c r="B79" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="Q7" s="45"/>
-      <c r="T7" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="U7" s="42"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="12" customHeight="1">
-      <c r="B8" s="90"/>
-      <c r="D8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="38"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="50"/>
-    </row>
-    <row r="9" spans="2:24" ht="12" customHeight="1">
-      <c r="B9" s="90"/>
-      <c r="D9" s="42"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="38"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="52"/>
-    </row>
-    <row r="10" spans="2:24" ht="12" customHeight="1">
-      <c r="B10" s="90"/>
-      <c r="D10" s="42"/>
-      <c r="G10" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="38"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-    </row>
-    <row r="11" spans="2:24" ht="12" customHeight="1">
-      <c r="B11" s="90"/>
-      <c r="D11" s="42"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="38"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="T11" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="U11" s="43"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="47" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" ht="12" customHeight="1">
-      <c r="B12" s="90"/>
-      <c r="D12" s="42"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="38"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="50"/>
-    </row>
-    <row r="13" spans="2:24" ht="12" customHeight="1">
-      <c r="B13" s="90"/>
-      <c r="D13" s="42"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="K13" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="38"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="52"/>
-    </row>
-    <row r="14" spans="2:24" ht="12" customHeight="1">
-      <c r="B14" s="90"/>
-      <c r="D14" s="42"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="38"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-    </row>
-    <row r="15" spans="2:24" ht="12" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="D15" s="42"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="38"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="12" customHeight="1">
-      <c r="B16" s="90"/>
-      <c r="D16" s="42"/>
-      <c r="G16" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="42"/>
-    </row>
-    <row r="17" spans="2:24" ht="12" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="D17" s="42"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="38"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="61"/>
-    </row>
-    <row r="18" spans="2:24" ht="12" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="62" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" ht="12" customHeight="1">
-      <c r="B19" s="90"/>
-      <c r="D19" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="K19" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="38"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="62"/>
-    </row>
-    <row r="20" spans="2:24" ht="12" customHeight="1">
-      <c r="B20" s="90"/>
-      <c r="D20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="38"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-    </row>
-    <row r="21" spans="2:24" ht="12" customHeight="1">
-      <c r="B21" s="90"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="38"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="U21" s="42"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" ht="12" customHeight="1">
-      <c r="B22" s="90"/>
-      <c r="D22" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="38"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="50"/>
-    </row>
-    <row r="23" spans="2:24" ht="12" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="D23" s="59"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="38"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="52"/>
-    </row>
-    <row r="24" spans="2:24" ht="12" customHeight="1">
-      <c r="B24" s="90"/>
-      <c r="D24" s="59"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="38"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-    </row>
-    <row r="25" spans="2:24" ht="12" customHeight="1">
-      <c r="B25" s="90"/>
-      <c r="D25" s="59"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="38"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="U25" s="67"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="43" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" ht="12" customHeight="1">
-      <c r="B26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="38"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="43"/>
-    </row>
-    <row r="27" spans="2:24" ht="12" customHeight="1">
-      <c r="B27" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="38"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="38"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-    </row>
-    <row r="28" spans="2:24" ht="12" customHeight="1">
-      <c r="B28" s="80"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="P28" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-    </row>
-    <row r="29" spans="2:24" ht="12" customHeight="1">
-      <c r="B29" s="80"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="H29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-    </row>
-    <row r="30" spans="2:24" ht="12" customHeight="1">
-      <c r="B30" s="80"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="38"/>
-    </row>
-    <row r="31" spans="2:24" ht="12" customHeight="1">
-      <c r="B31" s="80"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="38"/>
-      <c r="P31" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="72" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" ht="12" customHeight="1">
-      <c r="B32" s="80"/>
-      <c r="D32" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="38"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="75"/>
-    </row>
-    <row r="33" spans="2:24" ht="12" customHeight="1">
-      <c r="B33" s="80"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="78"/>
-    </row>
-    <row r="34" spans="2:24" ht="12" customHeight="1">
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-    </row>
-    <row r="35" spans="2:24" ht="12" customHeight="1">
-      <c r="B35" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-    </row>
-    <row r="36" spans="2:24" ht="12" customHeight="1">
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-    </row>
-    <row r="37" spans="2:24" ht="12" customHeight="1">
-      <c r="B37" s="60"/>
-      <c r="D37" s="60"/>
-    </row>
-    <row r="38" spans="2:24" ht="12" customHeight="1">
-      <c r="B38" s="36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" ht="12" customHeight="1">
-      <c r="B40" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="G40" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
-      <c r="P40" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q40" s="37"/>
-      <c r="T40" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="U40" s="37"/>
-      <c r="X40" s="39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" ht="12" customHeight="1">
-      <c r="G41" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-    </row>
-    <row r="43" spans="2:24" ht="12" customHeight="1">
-      <c r="B43" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="H43" s="43"/>
-      <c r="K43" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="38"/>
-      <c r="P43" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="U43" s="42"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="12" customHeight="1">
-      <c r="B44" s="92"/>
-      <c r="D44" s="81"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="38"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="50"/>
-    </row>
-    <row r="45" spans="2:24" ht="12" customHeight="1">
-      <c r="B45" s="92"/>
-      <c r="D45" s="81"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="38"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="52"/>
-    </row>
-    <row r="46" spans="2:24" ht="12" customHeight="1">
-      <c r="B46" s="92"/>
-      <c r="D46" s="81"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="38"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-    </row>
-    <row r="47" spans="2:24" ht="12" customHeight="1">
-      <c r="B47" s="92"/>
-      <c r="D47" s="81"/>
-      <c r="G47" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="H47" s="43"/>
-      <c r="K47" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="L47" s="54"/>
-      <c r="M47" s="38"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="62" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" ht="12" customHeight="1">
-      <c r="B48" s="92"/>
-      <c r="D48" s="81"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="38"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="62"/>
-    </row>
-    <row r="49" spans="2:24" ht="12" customHeight="1">
-      <c r="B49" s="92"/>
-      <c r="D49" s="81"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="38"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-    </row>
-    <row r="50" spans="2:24" ht="12" customHeight="1">
-      <c r="B50" s="92"/>
-      <c r="D50" s="81"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="38"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="U50" s="42"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="62" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" ht="12" customHeight="1">
-      <c r="B51" s="92"/>
-      <c r="D51" s="81"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="38"/>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="62"/>
-    </row>
-    <row r="52" spans="2:24" ht="12" customHeight="1">
-      <c r="B52" s="92"/>
-      <c r="D52" s="81"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="K52" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="L52" s="43"/>
-      <c r="M52" s="38"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-    </row>
-    <row r="53" spans="2:24" ht="12" customHeight="1">
-      <c r="B53" s="92"/>
-      <c r="D53" s="81"/>
-      <c r="G53" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="H53" s="59"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="38"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="80"/>
-      <c r="T53" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="U53" s="43"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" ht="12" customHeight="1">
-      <c r="B54" s="92"/>
-      <c r="D54" s="82"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="38"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="50"/>
-    </row>
-    <row r="55" spans="2:24" ht="12" customHeight="1">
-      <c r="B55" s="92"/>
-      <c r="D55" s="38"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="38"/>
-      <c r="P55" s="80"/>
-      <c r="Q55" s="80"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="52"/>
-    </row>
-    <row r="56" spans="2:24" ht="12" customHeight="1">
-      <c r="B56" s="92"/>
-      <c r="D56" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="H56" s="43"/>
-      <c r="K56" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="38"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="85"/>
-    </row>
-    <row r="57" spans="2:24" ht="12" customHeight="1">
-      <c r="B57" s="92"/>
-      <c r="D57" s="42"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="38"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" ht="12" customHeight="1">
-      <c r="B58" s="92"/>
-      <c r="D58" s="38"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="K58" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="L58" s="43"/>
-      <c r="M58" s="38"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="46"/>
-      <c r="X58" s="42"/>
-    </row>
-    <row r="59" spans="2:24" ht="12" customHeight="1">
-      <c r="B59" s="92"/>
-      <c r="D59" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="38"/>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="86"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="46"/>
-    </row>
-    <row r="60" spans="2:24" ht="12" customHeight="1">
-      <c r="B60" s="93"/>
-      <c r="D60" s="59"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="38"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="U60" s="42"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="46"/>
-      <c r="X60" s="43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" ht="12" customHeight="1">
-      <c r="B61" s="38"/>
-      <c r="D61" s="83"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="38"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
-      <c r="X61" s="43"/>
-    </row>
-    <row r="62" spans="2:24" ht="12" customHeight="1">
-      <c r="B62" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="38"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
-    </row>
-    <row r="63" spans="2:24" ht="12" customHeight="1">
-      <c r="B63" s="80"/>
-      <c r="D63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="K63" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="L63" s="54"/>
-      <c r="M63" s="38"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="87"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
-      <c r="X63" s="43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" ht="12" customHeight="1">
-      <c r="B64" s="80"/>
-      <c r="D64" s="51"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="56"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
-      <c r="X64" s="43"/>
-    </row>
-    <row r="65" spans="2:24" ht="12" customHeight="1">
-      <c r="B65" s="80"/>
-      <c r="D65" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="56"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="46"/>
-      <c r="X65" s="43"/>
-    </row>
-    <row r="66" spans="2:24" ht="12" customHeight="1">
-      <c r="B66" s="80"/>
-      <c r="D66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="38"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="46"/>
-      <c r="X66" s="46"/>
-    </row>
-    <row r="67" spans="2:24" ht="12" customHeight="1">
-      <c r="B67" s="80"/>
-      <c r="D67" s="43"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="38"/>
-      <c r="P67" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="46"/>
-      <c r="X67" s="72" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" ht="12" customHeight="1">
-      <c r="B68" s="80"/>
-      <c r="D68" s="43"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="K68" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="L68" s="84"/>
-      <c r="M68" s="38"/>
-      <c r="P68" s="73"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="46"/>
-      <c r="X68" s="75"/>
-    </row>
-    <row r="69" spans="2:24" ht="12" customHeight="1">
-      <c r="B69" s="80"/>
-      <c r="D69" s="43"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="38"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
-      <c r="X69" s="78"/>
-    </row>
-    <row r="70" spans="2:24" ht="12" customHeight="1">
-      <c r="B70" s="60"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
-    </row>
-    <row r="71" spans="2:24" ht="12" customHeight="1">
-      <c r="B71" s="80" t="s">
-        <v>324</v>
-      </c>
-      <c r="D71" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="H71" s="42"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="87"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
-      <c r="X71" s="89" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24" ht="12" customHeight="1">
-      <c r="B72" s="90"/>
-      <c r="D72" s="88" t="s">
-        <v>295</v>
-      </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="87"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
-      <c r="X72" s="46"/>
-    </row>
-    <row r="73" spans="2:24" ht="12" customHeight="1">
-      <c r="B73" s="90"/>
-      <c r="D73" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="P73" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="87"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
-      <c r="X73" s="46"/>
-    </row>
-    <row r="74" spans="2:24" ht="12" customHeight="1">
-      <c r="B74" s="60"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="87"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
-      <c r="X74" s="46"/>
-    </row>
-    <row r="76" spans="2:24" ht="12" customHeight="1">
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
+    </row>
+    <row r="80" spans="2:24" ht="12" customHeight="1">
+      <c r="B80" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="12" customHeight="1">
+      <c r="B81" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="12" customHeight="1">
+      <c r="B82" s="29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="12" customHeight="1">
+      <c r="B83" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="12" customHeight="1">
+      <c r="B84" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="12" customHeight="1">
+      <c r="B85" s="29" t="s">
+        <v>336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="D7:D17"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="K7:L11"/>
+    <mergeCell ref="P7:Q23"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="T7:U9"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="G10:H14"/>
+    <mergeCell ref="T11:U19"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="K13:L17"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:H23"/>
+    <mergeCell ref="K19:L32"/>
+    <mergeCell ref="T21:U23"/>
+    <mergeCell ref="X21:X23"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="P28:X29"/>
+    <mergeCell ref="G29:H33"/>
+    <mergeCell ref="P31:Q33"/>
+    <mergeCell ref="X31:X33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="T43:U48"/>
+    <mergeCell ref="X43:X45"/>
+    <mergeCell ref="G47:H50"/>
+    <mergeCell ref="K47:L50"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="T50:U51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="K43:L45"/>
+    <mergeCell ref="P43:Q61"/>
+    <mergeCell ref="K52:L54"/>
+    <mergeCell ref="G53:H54"/>
+    <mergeCell ref="T53:U55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="G56:H66"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="K58:L61"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D43:D54"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="G71:H73"/>
     <mergeCell ref="P73:Q73"/>
@@ -9809,67 +10003,7 @@
     <mergeCell ref="P67:Q69"/>
     <mergeCell ref="X67:X69"/>
     <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K52:L54"/>
-    <mergeCell ref="G53:H54"/>
-    <mergeCell ref="T53:U55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="G56:H66"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="K58:L61"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="T43:U48"/>
-    <mergeCell ref="X43:X45"/>
-    <mergeCell ref="G47:H50"/>
-    <mergeCell ref="K47:L50"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="T50:U51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="G41:I41"/>
     <mergeCell ref="B43:B60"/>
-    <mergeCell ref="D43:D54"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="K43:L45"/>
-    <mergeCell ref="P43:Q61"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="P28:X29"/>
-    <mergeCell ref="G29:H33"/>
-    <mergeCell ref="P31:Q33"/>
-    <mergeCell ref="X31:X33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:H23"/>
-    <mergeCell ref="K19:L32"/>
-    <mergeCell ref="T21:U23"/>
-    <mergeCell ref="X21:X23"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="T7:U9"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="G10:H14"/>
-    <mergeCell ref="T11:U19"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="K13:L17"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="D7:D17"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="K7:L11"/>
-    <mergeCell ref="P7:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10031,10 +10165,10 @@
     </row>
     <row r="4" spans="1:8" ht="75">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
@@ -10053,7 +10187,7 @@
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="1"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -10077,7 +10211,7 @@
     </row>
     <row r="6" spans="1:8" ht="45">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
@@ -10234,10 +10368,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -12132,10 +12266,10 @@
       <c r="I2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="14" t="s">
         <v>70</v>
       </c>
@@ -13980,121 +14114,266 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C0D722-3AC6-F241-B47C-06CF31F15319}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
-    <col min="2" max="2" width="18" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="33" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="123.5" style="33" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="27"/>
+    <col min="2" max="2" width="18" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="27" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123.5" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="2:6" ht="76">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="25" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="95">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="25" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="25" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="38">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="25" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="25" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="13" spans="2:6" ht="38">
+      <c r="B13" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="57">
+      <c r="B14" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="19" customHeight="1">
+      <c r="B16" s="95"/>
+      <c r="C16" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="95"/>
+      <c r="C17" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="2:6" ht="57">
+      <c r="B18" s="95"/>
+      <c r="C18" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="95"/>
+      <c r="C19" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="96"/>
+      <c r="C20" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/tony-checksheet.xlsx
+++ b/tony-checksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lei.du/tony-workspace/duleitony-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4864F-256B-B245-9EC6-C707F6D99335}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61248108-56D7-C742-A911-368017E6808D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="28000" windowHeight="17540" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="28000" windowHeight="17540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jvm-memory" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="356">
   <si>
     <t>存储内容</t>
   </si>
@@ -914,10 +914,6 @@
 G-CAT</t>
   </si>
   <si>
-    <t>SGT
-JET-S</t>
-  </si>
-  <si>
     <t>■Authorization</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1185,9 +1181,6 @@
 G-CAN</t>
   </si>
   <si>
-    <t>JET-S</t>
-  </si>
-  <si>
     <t>C-REX</t>
   </si>
   <si>
@@ -1200,6 +1193,9 @@
     <t>CAFIS</t>
   </si>
   <si>
+    <t>CARDNET</t>
+  </si>
+  <si>
     <t>JCN</t>
   </si>
   <si>
@@ -1237,6 +1233,9 @@
   </si>
   <si>
     <t>情報処理センター</t>
+  </si>
+  <si>
+    <t>JCN JET-S</t>
   </si>
 </sst>
 </file>
@@ -7590,7 +7589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E1FA1B-4CD5-374F-9B3D-692D90889D71}">
   <dimension ref="B2:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AC103" sqref="AC103"/>
     </sheetView>
   </sheetViews>
@@ -8624,17 +8623,17 @@
   <sheetData>
     <row r="2" spans="2:24" ht="12" customHeight="1">
       <c r="B2" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="12" customHeight="1">
       <c r="B4" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
       <c r="G4" s="76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
@@ -8643,20 +8642,20 @@
       <c r="L4" s="76"/>
       <c r="M4" s="31"/>
       <c r="P4" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="76"/>
       <c r="T4" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U4" s="76"/>
       <c r="X4" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="12" customHeight="1">
       <c r="G5" s="77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H5" s="77"/>
       <c r="I5" s="77"/>
@@ -8668,32 +8667,32 @@
     </row>
     <row r="7" spans="2:24" ht="12" customHeight="1">
       <c r="B7" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="G7" s="54" t="s">
         <v>283</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>284</v>
       </c>
       <c r="H7" s="54"/>
       <c r="K7" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L7" s="54"/>
       <c r="M7" s="31"/>
       <c r="P7" s="88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="89"/>
       <c r="T7" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="34"/>
       <c r="W7" s="34"/>
       <c r="X7" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="2:24" ht="12" customHeight="1">
@@ -8732,7 +8731,7 @@
       <c r="B10" s="52"/>
       <c r="D10" s="53"/>
       <c r="G10" s="55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H10" s="56"/>
       <c r="K10" s="54"/>
@@ -8756,13 +8755,13 @@
       <c r="P11" s="90"/>
       <c r="Q11" s="91"/>
       <c r="T11" s="54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U11" s="54"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="12" customHeight="1">
@@ -8787,7 +8786,7 @@
       <c r="G13" s="57"/>
       <c r="H13" s="58"/>
       <c r="K13" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L13" s="53"/>
       <c r="M13" s="31"/>
@@ -8831,14 +8830,14 @@
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
       <c r="X15" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="12" customHeight="1">
       <c r="B16" s="52"/>
       <c r="D16" s="53"/>
       <c r="G16" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H16" s="71"/>
       <c r="K16" s="53"/>
@@ -8888,20 +8887,20 @@
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
       <c r="X18" s="75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:24" ht="12" customHeight="1">
       <c r="B19" s="52"/>
       <c r="D19" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="54" t="s">
         <v>294</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>295</v>
       </c>
       <c r="H19" s="54"/>
       <c r="K19" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L19" s="54"/>
       <c r="M19" s="31"/>
@@ -8944,19 +8943,19 @@
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U21" s="53"/>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
       <c r="X21" s="72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="12" customHeight="1">
       <c r="B22" s="52"/>
       <c r="D22" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
@@ -9022,13 +9021,13 @@
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
       <c r="T25" s="84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U25" s="85"/>
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
       <c r="X25" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="12" customHeight="1">
@@ -9049,10 +9048,10 @@
     </row>
     <row r="27" spans="2:24" ht="12" customHeight="1">
       <c r="B27" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>302</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>303</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -9079,7 +9078,7 @@
       <c r="K28" s="54"/>
       <c r="L28" s="54"/>
       <c r="P28" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="54"/>
       <c r="R28" s="54"/>
@@ -9096,7 +9095,7 @@
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H29" s="54"/>
       <c r="K29" s="54"/>
@@ -9133,7 +9132,7 @@
       <c r="L31" s="54"/>
       <c r="M31" s="31"/>
       <c r="P31" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q31" s="62"/>
       <c r="R31" s="34"/>
@@ -9143,13 +9142,13 @@
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
       <c r="X31" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:24" ht="12" customHeight="1">
       <c r="B32" s="51"/>
       <c r="D32" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
@@ -9201,7 +9200,7 @@
     </row>
     <row r="35" spans="2:24" ht="12" customHeight="1">
       <c r="B35" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
@@ -9230,17 +9229,17 @@
     </row>
     <row r="38" spans="2:24" ht="12" customHeight="1">
       <c r="B38" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="12" customHeight="1">
       <c r="B40" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
       <c r="G40" s="76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H40" s="76"/>
       <c r="I40" s="76"/>
@@ -9249,54 +9248,54 @@
       <c r="L40" s="76"/>
       <c r="M40" s="31"/>
       <c r="P40" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="76"/>
       <c r="T40" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U40" s="76"/>
       <c r="X40" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="2:24" ht="12" customHeight="1">
       <c r="G41" s="77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H41" s="77"/>
       <c r="I41" s="77"/>
     </row>
     <row r="43" spans="2:24" ht="12" customHeight="1">
       <c r="B43" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="G43" s="54" t="s">
         <v>283</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>284</v>
       </c>
       <c r="H43" s="54"/>
       <c r="K43" s="54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L43" s="54"/>
       <c r="M43" s="31"/>
       <c r="P43" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q43" s="51"/>
       <c r="R43" s="34"/>
       <c r="S43" s="34"/>
       <c r="T43" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U43" s="53"/>
       <c r="V43" s="34"/>
       <c r="W43" s="34"/>
       <c r="X43" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="2:24" ht="12" customHeight="1">
@@ -9356,11 +9355,11 @@
       <c r="B47" s="79"/>
       <c r="D47" s="82"/>
       <c r="G47" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H47" s="54"/>
       <c r="K47" s="55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L47" s="56"/>
       <c r="M47" s="31"/>
@@ -9371,7 +9370,7 @@
       <c r="V47" s="34"/>
       <c r="W47" s="34"/>
       <c r="X47" s="75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="12" customHeight="1">
@@ -9422,13 +9421,13 @@
       <c r="R50" s="34"/>
       <c r="S50" s="34"/>
       <c r="T50" s="53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U50" s="53"/>
       <c r="V50" s="34"/>
       <c r="W50" s="34"/>
       <c r="X50" s="75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="12" customHeight="1">
@@ -9455,7 +9454,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="K52" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L52" s="54"/>
       <c r="M52" s="31"/>
@@ -9472,7 +9471,7 @@
       <c r="B53" s="79"/>
       <c r="D53" s="82"/>
       <c r="G53" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H53" s="71"/>
       <c r="K53" s="54"/>
@@ -9481,13 +9480,13 @@
       <c r="P53" s="51"/>
       <c r="Q53" s="51"/>
       <c r="T53" s="54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U53" s="54"/>
       <c r="V53" s="34"/>
       <c r="W53" s="34"/>
       <c r="X53" s="72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="2:24" ht="12" customHeight="1">
@@ -9529,14 +9528,14 @@
     <row r="56" spans="2:24" ht="12" customHeight="1">
       <c r="B56" s="79"/>
       <c r="D56" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G56" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H56" s="54"/>
       <c r="K56" s="70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L56" s="70"/>
       <c r="M56" s="31"/>
@@ -9567,7 +9566,7 @@
       <c r="V57" s="34"/>
       <c r="W57" s="34"/>
       <c r="X57" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="2:24" ht="12" customHeight="1">
@@ -9576,7 +9575,7 @@
       <c r="G58" s="54"/>
       <c r="H58" s="54"/>
       <c r="K58" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L58" s="54"/>
       <c r="M58" s="31"/>
@@ -9593,7 +9592,7 @@
     <row r="59" spans="2:24" ht="12" customHeight="1">
       <c r="B59" s="79"/>
       <c r="D59" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G59" s="54"/>
       <c r="H59" s="54"/>
@@ -9622,13 +9621,13 @@
       <c r="R60" s="34"/>
       <c r="S60" s="34"/>
       <c r="T60" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U60" s="53"/>
       <c r="V60" s="34"/>
       <c r="W60" s="34"/>
       <c r="X60" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="2:24" ht="12" customHeight="1">
@@ -9651,10 +9650,10 @@
     </row>
     <row r="62" spans="2:24" ht="12" customHeight="1">
       <c r="B62" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="54" t="s">
         <v>302</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>303</v>
       </c>
       <c r="G62" s="54"/>
       <c r="H62" s="54"/>
@@ -9676,7 +9675,7 @@
       <c r="G63" s="54"/>
       <c r="H63" s="54"/>
       <c r="K63" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L63" s="56"/>
       <c r="M63" s="31"/>
@@ -9689,7 +9688,7 @@
       <c r="V63" s="34"/>
       <c r="W63" s="34"/>
       <c r="X63" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="2:24" ht="12" customHeight="1">
@@ -9712,7 +9711,7 @@
     <row r="65" spans="2:24" ht="12" customHeight="1">
       <c r="B65" s="51"/>
       <c r="D65" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
@@ -9755,7 +9754,7 @@
       <c r="L67" s="35"/>
       <c r="M67" s="31"/>
       <c r="P67" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q67" s="62"/>
       <c r="R67" s="34"/>
@@ -9765,7 +9764,7 @@
       <c r="V67" s="34"/>
       <c r="W67" s="34"/>
       <c r="X67" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="2:24" ht="12" customHeight="1">
@@ -9774,7 +9773,7 @@
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
       <c r="K68" s="70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L68" s="70"/>
       <c r="M68" s="31"/>
@@ -9815,13 +9814,13 @@
     </row>
     <row r="71" spans="2:24" ht="12" customHeight="1">
       <c r="B71" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G71" s="53" t="s">
         <v>322</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="G71" s="53" t="s">
-        <v>323</v>
       </c>
       <c r="H71" s="53"/>
       <c r="P71" s="38"/>
@@ -9833,13 +9832,13 @@
       <c r="V71" s="34"/>
       <c r="W71" s="34"/>
       <c r="X71" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="2:24" ht="12" customHeight="1">
       <c r="B72" s="52"/>
       <c r="D72" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G72" s="53"/>
       <c r="H72" s="53"/>
@@ -9856,12 +9855,12 @@
     <row r="73" spans="2:24" ht="12" customHeight="1">
       <c r="B73" s="52"/>
       <c r="D73" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G73" s="53"/>
       <c r="H73" s="53"/>
       <c r="P73" s="52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q73" s="52"/>
       <c r="R73" s="34"/>
@@ -9890,42 +9889,42 @@
     </row>
     <row r="78" spans="2:24" ht="12" customHeight="1">
       <c r="B78" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="2:24" ht="12" customHeight="1">
       <c r="B79" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="2:24" ht="12" customHeight="1">
       <c r="B80" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="12" customHeight="1">
       <c r="B81" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="12" customHeight="1">
       <c r="B82" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="12" customHeight="1">
       <c r="B83" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="12" customHeight="1">
       <c r="B84" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="12" customHeight="1">
       <c r="B85" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -14116,8 +14115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C0D722-3AC6-F241-B47C-06CF31F15319}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -14126,7 +14125,7 @@
     <col min="2" max="2" width="18" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="27" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="27" customWidth="1"/>
     <col min="6" max="6" width="123.5" style="27" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="27"/>
   </cols>
@@ -14136,67 +14135,58 @@
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="2:6" ht="76">
+    </row>
+    <row r="3" spans="2:6" ht="133">
       <c r="B3" s="25" t="s">
         <v>253</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="95">
+    <row r="4" spans="2:6" ht="190">
       <c r="B4" s="25" t="s">
         <v>256</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" ht="38">
       <c r="B5" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>260</v>
+      </c>
       <c r="D5" s="25" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="38">
+    <row r="6" spans="2:6" ht="57">
       <c r="B6" s="25" t="s">
         <v>267</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>267</v>
+      </c>
       <c r="E6" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="F6" s="25" t="s">
         <v>268</v>
       </c>
     </row>
@@ -14204,14 +14194,13 @@
       <c r="B7" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>263</v>
+      </c>
       <c r="D7" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="25" t="s">
         <v>272</v>
       </c>
     </row>
@@ -14219,30 +14208,29 @@
       <c r="B8" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>265</v>
+      </c>
       <c r="D8" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="13" spans="2:6" ht="38">
       <c r="B13" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>355</v>
-      </c>
       <c r="D13" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="57">
@@ -14253,10 +14241,10 @@
         <v>273</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -14264,36 +14252,38 @@
         <v>256</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="25"/>
+        <v>341</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>355</v>
+      </c>
       <c r="E15" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="19" customHeight="1">
       <c r="B16" s="95"/>
       <c r="C16" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="95"/>
       <c r="C17" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -14301,10 +14291,10 @@
     <row r="18" spans="2:6" ht="57">
       <c r="B18" s="95"/>
       <c r="C18" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -14312,27 +14302,27 @@
     <row r="19" spans="2:6">
       <c r="B19" s="95"/>
       <c r="C19" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="96"/>
       <c r="C20" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="2:6">
